--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1389554.277574626</v>
+        <v>1334592.571168282</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>401174.2584760585</v>
+        <v>401174.258476059</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11503606.42357043</v>
+        <v>11503606.42357042</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.376898027766035</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G2" t="n">
         <v>3.516869431124803</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.1776483877525573</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,38 +761,38 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>3.097658594934726</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="H6" t="n">
-        <v>3.097658594934726</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="I6" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="J6" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.1776483877525565</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1776483877525582</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>3.097658594934726</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>268.4671692923316</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>194.7603440885288</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.0355428294531</v>
@@ -1435,7 +1435,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>52.29387099430411</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>11.48410277720623</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>22.51918577632092</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -1466,7 +1466,7 @@
         <v>147.9754831086837</v>
       </c>
       <c r="H12" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>80.88269664813838</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>237.1774694070239</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.22331673875183</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4371603754213</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>49.0932408933332</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>16.15069457683461</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>219.1395914672611</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.4006896726905</v>
+        <v>212.0370101843451</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9754831086837</v>
+        <v>10.08885425492528</v>
       </c>
       <c r="H15" t="n">
         <v>118.3074313936392</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.96680931411738</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>20.2599503118431</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.63995283957998</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.4619076189266</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.65185754899971</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>8.132332248944982</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>166.1152325732903</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
         <v>417.4006896726905</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S17" t="n">
-        <v>2.630339017800902</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>83.5278595708873</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H18" t="n">
         <v>118.3074313936392</v>
       </c>
       <c r="I18" t="n">
-        <v>80.88269664813838</v>
+        <v>57.8223495169946</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.96680931411738</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>72.55287523770012</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>72.55287523770016</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>403.1974463485883</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>116.9623244635286</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>9.579464915104445</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -2171,13 +2171,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>88.4308254177341</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>177.3046992815431</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8.1323322489452</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>174.4371603754213</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>122.316557632085</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
@@ -2335,10 +2335,10 @@
         <v>417.4006896726905</v>
       </c>
       <c r="H23" t="n">
-        <v>284.5446879404306</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5911946793677</v>
+        <v>98.38137942961045</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>87.81103547321391</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>81.26862410640906</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.88269664813838</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.96680931411737</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>76.63995283957986</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>145.4619076189266</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.65185754899971</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>6.44301091817096</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.0355428294531</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>241.014022011909</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>72.86269546749443</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>117.8240126568631</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -2648,13 +2648,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.88269664813838</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>77.54958236541103</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>75.74723767418692</v>
+        <v>6.44301091817096</v>
       </c>
       <c r="T28" t="n">
-        <v>221.0064803333194</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>240.4565226245004</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>327.3497943481548</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2876,22 +2876,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.88269664813838</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.96680931411738</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>18.89549608981837</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,10 +2933,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>63.65232215662939</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>6.44301091817098</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>224.2008427698061</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>72.55287523770016</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.4190842054689</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>85.24198688515142</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>107.0256150155997</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.88269664813838</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.96680931411738</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>112.7179135991729</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>237.1774694070239</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
@@ -3176,7 +3176,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>155.0775767952813</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>119.1367973425381</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>56.9207937511521</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T35" t="n">
         <v>216.1732982980278</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0355428294531</v>
+        <v>91.70903417128578</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.88269664813838</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.96680931411738</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T36" t="n">
         <v>211.8708247664476</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1774694070239</v>
+        <v>137.4703533558723</v>
       </c>
       <c r="V36" t="n">
-        <v>8.356683492336641</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>72.55287523770016</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.44301091817098</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.1732982980278</v>
+        <v>131.1637644962059</v>
       </c>
       <c r="U38" t="n">
-        <v>175.2284586835122</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>25.19689940117829</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.96680931411738</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>22.70201914821316</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -3650,7 +3650,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.44301091817098</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.132332248944982</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>237.8850656736714</v>
+        <v>161.1622906033098</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>250.0355428294531</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>39.71038160540866</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.88269664813838</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.96680931411738</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8708247664476</v>
+        <v>209.8850991225634</v>
       </c>
       <c r="U42" t="n">
         <v>237.1774694070239</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>151.5710677567956</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>16.15069457683444</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>15.36902427304918</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>131.1637644962054</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>134.8534202507121</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -4067,10 +4067,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>95.31075183502951</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>118.3074313936392</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.96680931411738</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V46" t="n">
-        <v>6.44301091817096</v>
+        <v>8.132332248944941</v>
       </c>
       <c r="W46" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.06747772449921</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="C2" t="n">
-        <v>14.06747772449921</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="D2" t="n">
-        <v>14.06747772449921</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="E2" t="n">
-        <v>14.06747772449921</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="F2" t="n">
         <v>10.65646961564463</v>
@@ -4363,19 +4363,19 @@
         <v>14.06747772449921</v>
       </c>
       <c r="U2" t="n">
-        <v>14.06747772449921</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="V2" t="n">
-        <v>14.06747772449921</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="W2" t="n">
-        <v>14.06747772449921</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="X2" t="n">
-        <v>14.06747772449921</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.06747772449921</v>
+        <v>13.88803490858754</v>
       </c>
     </row>
     <row r="3">
@@ -4397,16 +4397,16 @@
         <v>3.833742919262513</v>
       </c>
       <c r="F3" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G3" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H3" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I3" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J3" t="n">
         <v>0.2813495544899843</v>
@@ -4421,37 +4421,37 @@
         <v>6.937899146382215</v>
       </c>
       <c r="N3" t="n">
-        <v>7.104076250872104</v>
+        <v>10.41959988319577</v>
       </c>
       <c r="O3" t="n">
-        <v>10.58577698768566</v>
+        <v>13.90130062000932</v>
       </c>
       <c r="P3" t="n">
         <v>14.06747772449921</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="R3" t="n">
-        <v>10.93852964880757</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="S3" t="n">
         <v>7.386136284035041</v>
       </c>
       <c r="T3" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="U3" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="V3" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="W3" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="X3" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="Y3" t="n">
         <v>3.833742919262513</v>
@@ -4637,13 +4637,13 @@
         <v>10.51508435972668</v>
       </c>
       <c r="G6" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="H6" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="I6" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J6" t="n">
         <v>0.2813495544899843</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="C8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="D8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="E8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="F8" t="n">
-        <v>3.833742919262513</v>
+        <v>10.83591243155631</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.283519066783777</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.283519066783777</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.283519066783777</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.283519066783777</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.283519066783777</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="M8" t="n">
-        <v>3.763050291303539</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="N8" t="n">
-        <v>7.244751028117094</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="O8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="P8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="R8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="S8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="T8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="U8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="V8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="W8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="X8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>6.962690994954155</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.962690994954155</v>
+      </c>
+      <c r="D9" t="n">
         <v>3.833742919262513</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.2813495544899843</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2813495544899843</v>
-      </c>
       <c r="E9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="H9" t="n">
         <v>0.2813495544899843</v>
@@ -4886,19 +4886,19 @@
         <v>0.2813495544899843</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45619840956866</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L9" t="n">
-        <v>6.937899146382215</v>
+        <v>3.763050291303539</v>
       </c>
       <c r="M9" t="n">
-        <v>10.41959988319577</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="N9" t="n">
-        <v>13.90130062000932</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="O9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
@@ -4910,22 +4910,22 @@
         <v>10.51508435972668</v>
       </c>
       <c r="S9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="T9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="U9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="V9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="W9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="X9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="Y9" t="n">
         <v>6.962690994954155</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>221.7312569219369</v>
+        <v>492.9102158030799</v>
       </c>
       <c r="C11" t="n">
-        <v>221.7312569219369</v>
+        <v>492.9102158030799</v>
       </c>
       <c r="D11" t="n">
         <v>221.7312569219369</v>
@@ -5038,25 +5038,25 @@
         <v>221.7312569219369</v>
       </c>
       <c r="I11" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J11" t="n">
-        <v>79.03615234277439</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K11" t="n">
-        <v>253.4009645124897</v>
+        <v>253.4009645124888</v>
       </c>
       <c r="L11" t="n">
-        <v>524.6989948305066</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M11" t="n">
-        <v>855.4462867779246</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N11" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O11" t="n">
-        <v>1458.701379414586</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P11" t="n">
         <v>1648.405101797589</v>
@@ -5068,25 +5068,25 @@
         <v>1607.629543432273</v>
       </c>
       <c r="S11" t="n">
-        <v>1410.90192314083</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="T11" t="n">
-        <v>1192.545056173125</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="U11" t="n">
-        <v>939.98390179994</v>
+        <v>1158.340768767644</v>
       </c>
       <c r="V11" t="n">
-        <v>615.8629082553419</v>
+        <v>834.2197752230464</v>
       </c>
       <c r="W11" t="n">
-        <v>274.5533488353754</v>
+        <v>492.9102158030799</v>
       </c>
       <c r="X11" t="n">
-        <v>221.7312569219369</v>
+        <v>492.9102158030799</v>
       </c>
       <c r="Y11" t="n">
-        <v>221.7312569219369</v>
+        <v>492.9102158030799</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>568.1121067879398</v>
+        <v>949.6185929200449</v>
       </c>
       <c r="C12" t="n">
-        <v>568.1121067879398</v>
+        <v>760.2063186530086</v>
       </c>
       <c r="D12" t="n">
-        <v>568.1121067879398</v>
+        <v>599.4262024140403</v>
       </c>
       <c r="E12" t="n">
-        <v>545.3654544886257</v>
+        <v>425.8629985354547</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9377382058698</v>
+        <v>265.4352822526988</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4675532476034</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="H12" t="n">
         <v>115.9650972944325</v>
       </c>
       <c r="I12" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J12" t="n">
-        <v>54.25343639154486</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K12" t="n">
-        <v>215.1710339715871</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="L12" t="n">
-        <v>497.8311447175247</v>
+        <v>316.9255144563919</v>
       </c>
       <c r="M12" t="n">
-        <v>872.4368259593775</v>
+        <v>691.5311956982448</v>
       </c>
       <c r="N12" t="n">
-        <v>1080.985636973606</v>
+        <v>1094.471464215456</v>
       </c>
       <c r="O12" t="n">
-        <v>1393.850179535332</v>
+        <v>1407.336006777182</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.875055820308</v>
+        <v>1636.360883062158</v>
       </c>
       <c r="Q12" t="n">
         <v>1713.270185522716</v>
@@ -5147,25 +5147,25 @@
         <v>1713.270185522716</v>
       </c>
       <c r="S12" t="n">
-        <v>1534.174529682773</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T12" t="n">
-        <v>1320.163595575251</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="U12" t="n">
-        <v>1080.590394154014</v>
+        <v>1473.696984101479</v>
       </c>
       <c r="V12" t="n">
-        <v>837.5106760576484</v>
+        <v>1230.617266005113</v>
       </c>
       <c r="W12" t="n">
-        <v>568.1121067879398</v>
+        <v>961.2186967354047</v>
       </c>
       <c r="X12" t="n">
-        <v>568.1121067879398</v>
+        <v>961.2186967354047</v>
       </c>
       <c r="Y12" t="n">
-        <v>568.1121067879398</v>
+        <v>961.2186967354047</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.26540371045432</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="C13" t="n">
-        <v>34.26540371045432</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="D13" t="n">
-        <v>34.26540371045432</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="E13" t="n">
-        <v>34.26540371045432</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="F13" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G13" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H13" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I13" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J13" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K13" t="n">
         <v>42.07125390872753</v>
@@ -5220,31 +5220,31 @@
         <v>334.0166340210667</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.0536878203073</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R13" t="n">
-        <v>83.8545359259424</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S13" t="n">
-        <v>34.26540371045432</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T13" t="n">
-        <v>34.26540371045432</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U13" t="n">
-        <v>34.26540371045432</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V13" t="n">
-        <v>34.26540371045432</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="W13" t="n">
-        <v>34.26540371045432</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="X13" t="n">
-        <v>34.26540371045432</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.26540371045432</v>
+        <v>317.7028011151732</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1607.629543432273</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="C14" t="n">
-        <v>1607.629543432273</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="D14" t="n">
-        <v>1607.629543432273</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="E14" t="n">
-        <v>1386.27642073807</v>
+        <v>655.7161712098065</v>
       </c>
       <c r="F14" t="n">
-        <v>979.0044514047229</v>
+        <v>248.4442018764595</v>
       </c>
       <c r="G14" t="n">
-        <v>557.3875931494799</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H14" t="n">
-        <v>221.7312569219369</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I14" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J14" t="n">
-        <v>79.03615234277368</v>
+        <v>79.03615234277379</v>
       </c>
       <c r="K14" t="n">
-        <v>253.4009645124888</v>
+        <v>253.4009645124891</v>
       </c>
       <c r="L14" t="n">
-        <v>524.6989948305059</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M14" t="n">
-        <v>855.4462867779238</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N14" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O14" t="n">
         <v>1458.701379414585</v>
@@ -5311,19 +5311,19 @@
         <v>1607.629543432273</v>
       </c>
       <c r="U14" t="n">
-        <v>1607.629543432273</v>
+        <v>1355.068389059088</v>
       </c>
       <c r="V14" t="n">
-        <v>1607.629543432273</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="W14" t="n">
-        <v>1607.629543432273</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="X14" t="n">
-        <v>1607.629543432273</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="Y14" t="n">
-        <v>1607.629543432273</v>
+        <v>1030.947395514489</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1069.121048873216</v>
+        <v>608.6337932668871</v>
       </c>
       <c r="C15" t="n">
-        <v>879.7087746061795</v>
+        <v>419.2215189998508</v>
       </c>
       <c r="D15" t="n">
-        <v>718.9286583672113</v>
+        <v>419.2215189998508</v>
       </c>
       <c r="E15" t="n">
-        <v>545.3654544886257</v>
+        <v>245.6583151212652</v>
       </c>
       <c r="F15" t="n">
-        <v>384.9377382058698</v>
+        <v>245.6583151212652</v>
       </c>
       <c r="G15" t="n">
-        <v>235.4675532476034</v>
+        <v>235.4675532476033</v>
       </c>
       <c r="H15" t="n">
         <v>115.9650972944325</v>
       </c>
       <c r="I15" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J15" t="n">
-        <v>34.26540371045432</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="K15" t="n">
-        <v>195.1830012904966</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L15" t="n">
-        <v>477.8431120364341</v>
+        <v>497.8311447175247</v>
       </c>
       <c r="M15" t="n">
-        <v>852.448793278287</v>
+        <v>678.0453684563944</v>
       </c>
       <c r="N15" t="n">
-        <v>1255.389061795498</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O15" t="n">
-        <v>1568.253604357224</v>
+        <v>1393.850179535332</v>
       </c>
       <c r="P15" t="n">
-        <v>1713.270185522716</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q15" t="n">
         <v>1713.270185522716</v>
       </c>
       <c r="R15" t="n">
-        <v>1713.270185522716</v>
+        <v>1625.424923589264</v>
       </c>
       <c r="S15" t="n">
-        <v>1713.270185522716</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="T15" t="n">
-        <v>1713.270185522716</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="U15" t="n">
-        <v>1713.270185522716</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="V15" t="n">
-        <v>1713.270185522716</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="W15" t="n">
-        <v>1692.805589248127</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="X15" t="n">
-        <v>1473.297594864823</v>
+        <v>1012.810339258495</v>
       </c>
       <c r="Y15" t="n">
-        <v>1247.656901800151</v>
+        <v>787.1696461938222</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C16" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D16" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E16" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F16" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G16" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H16" t="n">
-        <v>256.6025402437132</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I16" t="n">
-        <v>109.6713204266157</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J16" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K16" t="n">
         <v>42.07125390872753</v>
@@ -5469,19 +5469,19 @@
         <v>334.0166340210667</v>
       </c>
       <c r="U16" t="n">
-        <v>334.0166340210667</v>
+        <v>42.47988072959066</v>
       </c>
       <c r="V16" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="W16" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="X16" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="Y16" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1332.747378052378</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="C17" t="n">
-        <v>979.0044514047229</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="D17" t="n">
-        <v>979.0044514047229</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="E17" t="n">
-        <v>979.0044514047229</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="F17" t="n">
-        <v>979.0044514047229</v>
+        <v>455.8822619656972</v>
       </c>
       <c r="G17" t="n">
-        <v>557.3875931494799</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H17" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I17" t="n">
-        <v>34.26540371045432</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J17" t="n">
-        <v>79.03615234277439</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K17" t="n">
-        <v>253.4009645124897</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L17" t="n">
-        <v>524.6989948305066</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M17" t="n">
-        <v>855.4462867779246</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N17" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O17" t="n">
-        <v>1458.701379414586</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P17" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q17" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R17" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="S17" t="n">
-        <v>1710.613277423927</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="T17" t="n">
-        <v>1710.613277423927</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="U17" t="n">
-        <v>1710.613277423927</v>
+        <v>1355.068389059087</v>
       </c>
       <c r="V17" t="n">
-        <v>1710.613277423927</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="W17" t="n">
-        <v>1710.613277423927</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="X17" t="n">
-        <v>1710.613277423927</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="Y17" t="n">
-        <v>1710.613277423927</v>
+        <v>1030.947395514489</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>480.2668448544879</v>
+        <v>1045.827768942768</v>
       </c>
       <c r="C18" t="n">
-        <v>480.2668448544879</v>
+        <v>856.4154946757312</v>
       </c>
       <c r="D18" t="n">
-        <v>480.2668448544879</v>
+        <v>695.6353784367629</v>
       </c>
       <c r="E18" t="n">
-        <v>480.2668448544879</v>
+        <v>522.0721745581774</v>
       </c>
       <c r="F18" t="n">
-        <v>319.839128571732</v>
+        <v>361.6444582754215</v>
       </c>
       <c r="G18" t="n">
-        <v>235.4675532476034</v>
+        <v>212.1742733171551</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9650972944325</v>
+        <v>92.6718173639842</v>
       </c>
       <c r="I18" t="n">
-        <v>34.26540371045432</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J18" t="n">
-        <v>34.26540371045432</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K18" t="n">
-        <v>195.1830012904966</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L18" t="n">
-        <v>477.8431120364341</v>
+        <v>497.8311447175246</v>
       </c>
       <c r="M18" t="n">
-        <v>678.0453684563948</v>
+        <v>872.4368259593773</v>
       </c>
       <c r="N18" t="n">
-        <v>1080.985636973606</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O18" t="n">
-        <v>1393.850179535332</v>
+        <v>1484.24530923774</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.875055820308</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q18" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R18" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S18" t="n">
-        <v>1446.329267749322</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T18" t="n">
-        <v>1232.318333641799</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U18" t="n">
-        <v>992.7451322205625</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="V18" t="n">
-        <v>749.6654141241966</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="W18" t="n">
-        <v>480.2668448544879</v>
+        <v>1443.871616253006</v>
       </c>
       <c r="X18" t="n">
-        <v>480.2668448544879</v>
+        <v>1224.363621869703</v>
       </c>
       <c r="Y18" t="n">
-        <v>480.2668448544879</v>
+        <v>1224.363621869703</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.26540371045432</v>
+        <v>107.5511362737878</v>
       </c>
       <c r="C19" t="n">
-        <v>34.26540371045432</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D19" t="n">
-        <v>34.26540371045432</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E19" t="n">
-        <v>34.26540371045432</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F19" t="n">
-        <v>34.26540371045432</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G19" t="n">
-        <v>34.26540371045432</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H19" t="n">
-        <v>34.26540371045432</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I19" t="n">
-        <v>34.26540371045432</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J19" t="n">
-        <v>34.26540371045432</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K19" t="n">
-        <v>42.07125390872753</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L19" t="n">
         <v>105.1473006107386</v>
@@ -5712,13 +5712,13 @@
         <v>107.5511362737878</v>
       </c>
       <c r="W19" t="n">
-        <v>34.26540371045432</v>
+        <v>107.5511362737878</v>
       </c>
       <c r="X19" t="n">
-        <v>34.26540371045432</v>
+        <v>107.5511362737878</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.26540371045432</v>
+        <v>107.5511362737878</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>795.2784781849666</v>
+        <v>831.1134862703802</v>
       </c>
       <c r="C20" t="n">
-        <v>441.5355515373112</v>
+        <v>831.1134862703802</v>
       </c>
       <c r="D20" t="n">
-        <v>441.5355515373112</v>
+        <v>831.1134862703802</v>
       </c>
       <c r="E20" t="n">
-        <v>441.5355515373112</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="F20" t="n">
-        <v>441.5355515373112</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="G20" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H20" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I20" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J20" t="n">
-        <v>79.03615234277387</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K20" t="n">
-        <v>253.4009645124892</v>
+        <v>253.4009645124889</v>
       </c>
       <c r="L20" t="n">
-        <v>524.6989948305065</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M20" t="n">
-        <v>855.4462867779246</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N20" t="n">
         <v>1184.702979677705</v>
       </c>
       <c r="O20" t="n">
-        <v>1458.701379414586</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P20" t="n">
         <v>1648.405101797589</v>
@@ -5785,19 +5785,19 @@
         <v>1713.270185522716</v>
       </c>
       <c r="U20" t="n">
-        <v>1460.709031149531</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="V20" t="n">
-        <v>1136.588037604933</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="W20" t="n">
-        <v>795.2784781849666</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="X20" t="n">
-        <v>795.2784781849666</v>
+        <v>1595.126423438343</v>
       </c>
       <c r="Y20" t="n">
-        <v>795.2784781849666</v>
+        <v>1208.979385641929</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>647.3450641735637</v>
+        <v>807.6853082091756</v>
       </c>
       <c r="C21" t="n">
-        <v>457.9327899065274</v>
+        <v>798.0090810222014</v>
       </c>
       <c r="D21" t="n">
-        <v>297.1526736675592</v>
+        <v>637.2289647832331</v>
       </c>
       <c r="E21" t="n">
-        <v>123.5894697889736</v>
+        <v>463.6657609046475</v>
       </c>
       <c r="F21" t="n">
-        <v>123.5894697889736</v>
+        <v>303.2380446218916</v>
       </c>
       <c r="G21" t="n">
-        <v>34.26540371045432</v>
+        <v>153.7678596636252</v>
       </c>
       <c r="H21" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I21" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J21" t="n">
-        <v>34.26540371045432</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="K21" t="n">
-        <v>34.26540371045432</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L21" t="n">
-        <v>316.925514456392</v>
+        <v>497.8311447175247</v>
       </c>
       <c r="M21" t="n">
-        <v>691.5311956982448</v>
+        <v>678.0453684563944</v>
       </c>
       <c r="N21" t="n">
-        <v>1094.471464215456</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O21" t="n">
-        <v>1407.336006777182</v>
+        <v>1393.850179535332</v>
       </c>
       <c r="P21" t="n">
-        <v>1636.360883062158</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q21" t="n">
         <v>1713.270185522716</v>
@@ -5861,22 +5861,22 @@
         <v>1534.174529682773</v>
       </c>
       <c r="T21" t="n">
-        <v>1534.174529682773</v>
+        <v>1320.16359557525</v>
       </c>
       <c r="U21" t="n">
-        <v>1294.601328261537</v>
+        <v>1320.16359557525</v>
       </c>
       <c r="V21" t="n">
-        <v>1051.521610165171</v>
+        <v>1077.083877478884</v>
       </c>
       <c r="W21" t="n">
-        <v>1051.521610165171</v>
+        <v>807.6853082091756</v>
       </c>
       <c r="X21" t="n">
-        <v>1051.521610165171</v>
+        <v>807.6853082091756</v>
       </c>
       <c r="Y21" t="n">
-        <v>825.8809171004989</v>
+        <v>807.6853082091756</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.47988072959089</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C22" t="n">
-        <v>42.47988072959089</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D22" t="n">
-        <v>42.47988072959089</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E22" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F22" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G22" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H22" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I22" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J22" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K22" t="n">
-        <v>42.07125390872756</v>
+        <v>42.07125390872753</v>
       </c>
       <c r="L22" t="n">
-        <v>105.1473006107387</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M22" t="n">
-        <v>180.2480375930233</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N22" t="n">
-        <v>261.579183167833</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O22" t="n">
-        <v>314.7040135792701</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P22" t="n">
-        <v>334.016634021067</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.016634021067</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R22" t="n">
-        <v>334.016634021067</v>
+        <v>157.8174821267018</v>
       </c>
       <c r="S22" t="n">
-        <v>334.016634021067</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="T22" t="n">
-        <v>334.016634021067</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="U22" t="n">
-        <v>42.47988072959089</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="V22" t="n">
-        <v>42.47988072959089</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="W22" t="n">
-        <v>42.47988072959089</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="X22" t="n">
-        <v>42.47988072959089</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.47988072959089</v>
+        <v>34.26540371045431</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1713.270185522716</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="C23" t="n">
-        <v>1713.270185522716</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="D23" t="n">
-        <v>1713.270185522716</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="E23" t="n">
-        <v>1338.038961218032</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="F23" t="n">
-        <v>930.7669918846855</v>
+        <v>890.9137289302205</v>
       </c>
       <c r="G23" t="n">
-        <v>509.1501336294425</v>
+        <v>469.2968706749775</v>
       </c>
       <c r="H23" t="n">
-        <v>221.7312569219368</v>
+        <v>133.6405344474346</v>
       </c>
       <c r="I23" t="n">
         <v>34.26540371045431</v>
@@ -5992,13 +5992,13 @@
         <v>79.03615234277368</v>
       </c>
       <c r="K23" t="n">
-        <v>253.4009645124893</v>
+        <v>253.4009645124889</v>
       </c>
       <c r="L23" t="n">
-        <v>524.6989948305064</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M23" t="n">
-        <v>855.4462867779243</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N23" t="n">
         <v>1184.702979677705</v>
@@ -6016,25 +6016,25 @@
         <v>1713.270185522716</v>
       </c>
       <c r="S23" t="n">
-        <v>1713.270185522716</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="T23" t="n">
-        <v>1713.270185522716</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="U23" t="n">
-        <v>1713.270185522716</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="V23" t="n">
-        <v>1713.270185522716</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="W23" t="n">
-        <v>1713.270185522716</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="X23" t="n">
-        <v>1713.270185522716</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="Y23" t="n">
-        <v>1713.270185522716</v>
+        <v>1298.185698263567</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1001.740383214353</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C24" t="n">
-        <v>812.3281089473162</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D24" t="n">
-        <v>651.5479927083479</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E24" t="n">
-        <v>477.9847888297624</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F24" t="n">
-        <v>317.5570725470064</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G24" t="n">
-        <v>235.4675532476033</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I24" t="n">
         <v>34.26540371045431</v>
       </c>
       <c r="J24" t="n">
-        <v>34.26540371045431</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="K24" t="n">
-        <v>195.1830012904965</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8431120364341</v>
+        <v>497.8311447175247</v>
       </c>
       <c r="M24" t="n">
-        <v>852.448793278287</v>
+        <v>872.4368259593775</v>
       </c>
       <c r="N24" t="n">
-        <v>1080.985636973605</v>
+        <v>1275.377094476588</v>
       </c>
       <c r="O24" t="n">
-        <v>1393.850179535332</v>
+        <v>1588.241637038315</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.875055820307</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="Q24" t="n">
         <v>1713.270185522716</v>
       </c>
       <c r="R24" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S24" t="n">
-        <v>1625.424923589264</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T24" t="n">
-        <v>1625.424923589264</v>
+        <v>1320.16359557525</v>
       </c>
       <c r="U24" t="n">
-        <v>1625.424923589264</v>
+        <v>1080.590394154014</v>
       </c>
       <c r="V24" t="n">
-        <v>1625.424923589264</v>
+        <v>837.510676057648</v>
       </c>
       <c r="W24" t="n">
-        <v>1625.424923589264</v>
+        <v>568.1121067879393</v>
       </c>
       <c r="X24" t="n">
-        <v>1405.91692920596</v>
+        <v>348.6041124046357</v>
       </c>
       <c r="Y24" t="n">
-        <v>1180.276236141288</v>
+        <v>122.9634193399633</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1713.270185522716</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C25" t="n">
-        <v>1713.270185522716</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D25" t="n">
-        <v>1713.270185522716</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E25" t="n">
-        <v>1713.270185522716</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F25" t="n">
-        <v>1713.270185522716</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G25" t="n">
-        <v>1713.270185522716</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H25" t="n">
-        <v>1635.856091745362</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I25" t="n">
-        <v>1488.924871928265</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J25" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K25" t="n">
-        <v>1421.324805410376</v>
+        <v>42.07125390872753</v>
       </c>
       <c r="L25" t="n">
-        <v>1484.400852112388</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M25" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N25" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O25" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P25" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q25" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R25" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S25" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T25" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U25" t="n">
-        <v>1713.270185522716</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="V25" t="n">
-        <v>1713.270185522716</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="W25" t="n">
-        <v>1713.270185522716</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="X25" t="n">
-        <v>1713.270185522716</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="Y25" t="n">
-        <v>1713.270185522716</v>
+        <v>34.26540371045431</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34.26540371045432</v>
+        <v>831.1134862703802</v>
       </c>
       <c r="C26" t="n">
-        <v>34.26540371045432</v>
+        <v>831.1134862703802</v>
       </c>
       <c r="D26" t="n">
-        <v>34.26540371045432</v>
+        <v>831.1134862703802</v>
       </c>
       <c r="E26" t="n">
-        <v>34.26540371045432</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="F26" t="n">
-        <v>34.26540371045432</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="G26" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H26" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I26" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J26" t="n">
-        <v>79.03615234277436</v>
+        <v>79.03615234277379</v>
       </c>
       <c r="K26" t="n">
-        <v>253.4009645124895</v>
+        <v>253.4009645124891</v>
       </c>
       <c r="L26" t="n">
         <v>524.6989948305065</v>
       </c>
       <c r="M26" t="n">
-        <v>855.4462867779245</v>
+        <v>855.4462867779242</v>
       </c>
       <c r="N26" t="n">
         <v>1184.702979677705</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.701379414586</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P26" t="n">
         <v>1648.405101797589</v>
@@ -6250,28 +6250,28 @@
         <v>1713.270185522716</v>
       </c>
       <c r="R26" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S26" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T26" t="n">
-        <v>1389.272676464568</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="U26" t="n">
-        <v>1136.711522091383</v>
+        <v>1460.709031149531</v>
       </c>
       <c r="V26" t="n">
-        <v>812.5905285467851</v>
+        <v>1217.260524066794</v>
       </c>
       <c r="W26" t="n">
-        <v>471.2809691268185</v>
+        <v>1217.260524066794</v>
       </c>
       <c r="X26" t="n">
-        <v>107.8640860008528</v>
+        <v>1217.260524066794</v>
       </c>
       <c r="Y26" t="n">
-        <v>34.26540371045432</v>
+        <v>831.1134862703802</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>998.7229288050312</v>
+        <v>557.6685981388321</v>
       </c>
       <c r="C27" t="n">
-        <v>879.7087746061795</v>
+        <v>368.2563238717958</v>
       </c>
       <c r="D27" t="n">
-        <v>718.9286583672113</v>
+        <v>368.2563238717958</v>
       </c>
       <c r="E27" t="n">
-        <v>545.3654544886257</v>
+        <v>194.6931199932102</v>
       </c>
       <c r="F27" t="n">
-        <v>384.9377382058698</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G27" t="n">
-        <v>235.4675532476034</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I27" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J27" t="n">
-        <v>54.25343639154486</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="K27" t="n">
         <v>215.1710339715871</v>
@@ -6317,10 +6317,10 @@
         <v>872.4368259593775</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.380766676014</v>
+        <v>1275.377094476588</v>
       </c>
       <c r="O27" t="n">
-        <v>1484.24530923774</v>
+        <v>1588.241637038315</v>
       </c>
       <c r="P27" t="n">
         <v>1713.270185522716</v>
@@ -6332,25 +6332,25 @@
         <v>1713.270185522716</v>
       </c>
       <c r="S27" t="n">
-        <v>1713.270185522716</v>
+        <v>1634.937274042502</v>
       </c>
       <c r="T27" t="n">
-        <v>1713.270185522716</v>
+        <v>1420.92633993498</v>
       </c>
       <c r="U27" t="n">
-        <v>1713.270185522716</v>
+        <v>1181.353138513743</v>
       </c>
       <c r="V27" t="n">
-        <v>1713.270185522716</v>
+        <v>1181.353138513743</v>
       </c>
       <c r="W27" t="n">
-        <v>1443.871616253007</v>
+        <v>1181.353138513743</v>
       </c>
       <c r="X27" t="n">
-        <v>1224.363621869704</v>
+        <v>961.8451441304396</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.7229288050312</v>
+        <v>736.2044510657672</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C28" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D28" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E28" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F28" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G28" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H28" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I28" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J28" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K28" t="n">
         <v>42.07125390872753</v>
@@ -6411,25 +6411,25 @@
         <v>334.0166340210667</v>
       </c>
       <c r="S28" t="n">
-        <v>257.5042727340092</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="T28" t="n">
-        <v>34.26540371045432</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="U28" t="n">
-        <v>34.26540371045432</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="V28" t="n">
-        <v>34.26540371045432</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="W28" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="X28" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>684.4227494321856</v>
+        <v>772.1937309712305</v>
       </c>
       <c r="C29" t="n">
-        <v>441.5373730438013</v>
+        <v>772.1937309712305</v>
       </c>
       <c r="D29" t="n">
-        <v>441.5373730438013</v>
+        <v>772.1937309712305</v>
       </c>
       <c r="E29" t="n">
-        <v>441.5373730438013</v>
+        <v>772.1937309712305</v>
       </c>
       <c r="F29" t="n">
-        <v>34.26540371045432</v>
+        <v>364.9217616378835</v>
       </c>
       <c r="G29" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H29" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I29" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J29" t="n">
-        <v>79.03615234277436</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K29" t="n">
-        <v>253.40096451249</v>
+        <v>253.4009645124889</v>
       </c>
       <c r="L29" t="n">
-        <v>524.698994830507</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M29" t="n">
-        <v>855.4462867779247</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N29" t="n">
         <v>1184.702979677705</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.701379414586</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P29" t="n">
         <v>1648.405101797589</v>
@@ -6487,28 +6487,28 @@
         <v>1713.270185522716</v>
       </c>
       <c r="R29" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432273</v>
       </c>
       <c r="S29" t="n">
-        <v>1713.270185522716</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="T29" t="n">
-        <v>1713.270185522716</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="U29" t="n">
-        <v>1713.270185522716</v>
+        <v>1158.340768767644</v>
       </c>
       <c r="V29" t="n">
-        <v>1389.149191978118</v>
+        <v>1158.340768767644</v>
       </c>
       <c r="W29" t="n">
-        <v>1047.839632558151</v>
+        <v>1158.340768767644</v>
       </c>
       <c r="X29" t="n">
-        <v>684.4227494321856</v>
+        <v>1158.340768767644</v>
       </c>
       <c r="Y29" t="n">
-        <v>684.4227494321856</v>
+        <v>772.1937309712305</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>734.777728755662</v>
+        <v>558.0209980950444</v>
       </c>
       <c r="C30" t="n">
-        <v>545.3654544886257</v>
+        <v>368.6087238280081</v>
       </c>
       <c r="D30" t="n">
-        <v>545.3654544886257</v>
+        <v>207.8286075890398</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3654544886257</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9377382058698</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4675532476034</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I30" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J30" t="n">
-        <v>54.25343639154486</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K30" t="n">
-        <v>215.1710339715871</v>
+        <v>195.1830012904965</v>
       </c>
       <c r="L30" t="n">
-        <v>497.8311447175247</v>
+        <v>477.8431120364341</v>
       </c>
       <c r="M30" t="n">
-        <v>872.4368259593775</v>
+        <v>852.448793278287</v>
       </c>
       <c r="N30" t="n">
-        <v>1275.377094476588</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O30" t="n">
-        <v>1588.241637038315</v>
+        <v>1393.850179535332</v>
       </c>
       <c r="P30" t="n">
-        <v>1713.270185522716</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q30" t="n">
         <v>1713.270185522716</v>
       </c>
       <c r="R30" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S30" t="n">
-        <v>1446.329267749322</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T30" t="n">
-        <v>1446.329267749322</v>
+        <v>1694.18382583603</v>
       </c>
       <c r="U30" t="n">
-        <v>1446.329267749322</v>
+        <v>1694.18382583603</v>
       </c>
       <c r="V30" t="n">
-        <v>1203.249549652956</v>
+        <v>1451.104107739664</v>
       </c>
       <c r="W30" t="n">
-        <v>1203.249549652956</v>
+        <v>1181.705538469956</v>
       </c>
       <c r="X30" t="n">
-        <v>1138.954274747269</v>
+        <v>962.197544086652</v>
       </c>
       <c r="Y30" t="n">
-        <v>913.313581682597</v>
+        <v>736.5568510219796</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.26540371045432</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="C31" t="n">
-        <v>34.26540371045432</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="D31" t="n">
-        <v>34.26540371045432</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="E31" t="n">
-        <v>34.26540371045432</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="F31" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G31" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H31" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I31" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J31" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K31" t="n">
         <v>42.07125390872753</v>
@@ -6648,25 +6648,25 @@
         <v>334.0166340210667</v>
       </c>
       <c r="S31" t="n">
-        <v>107.5511362737878</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T31" t="n">
-        <v>34.26540371045432</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U31" t="n">
-        <v>34.26540371045432</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V31" t="n">
-        <v>34.26540371045432</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W31" t="n">
-        <v>34.26540371045432</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="X31" t="n">
-        <v>34.26540371045432</v>
+        <v>40.77349554699066</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.26540371045432</v>
+        <v>40.77349554699066</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.26540371045432</v>
+        <v>863.1542312990443</v>
       </c>
       <c r="C32" t="n">
-        <v>34.26540371045432</v>
+        <v>863.1542312990443</v>
       </c>
       <c r="D32" t="n">
-        <v>34.26540371045432</v>
+        <v>863.1542312990443</v>
       </c>
       <c r="E32" t="n">
-        <v>34.26540371045432</v>
+        <v>863.1542312990443</v>
       </c>
       <c r="F32" t="n">
-        <v>34.26540371045432</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="G32" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H32" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I32" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J32" t="n">
         <v>79.03615234277368</v>
       </c>
       <c r="K32" t="n">
-        <v>253.4009645124888</v>
+        <v>253.4009645124889</v>
       </c>
       <c r="L32" t="n">
-        <v>524.6989948305059</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M32" t="n">
-        <v>855.4462867779238</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N32" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O32" t="n">
         <v>1458.701379414585</v>
@@ -6727,25 +6727,25 @@
         <v>1713.270185522716</v>
       </c>
       <c r="S32" t="n">
-        <v>1516.542565231273</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T32" t="n">
-        <v>1516.542565231273</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="U32" t="n">
-        <v>1485.816217548981</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="V32" t="n">
-        <v>1161.695224004383</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="W32" t="n">
-        <v>1161.695224004383</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="X32" t="n">
-        <v>798.2783408784172</v>
+        <v>1627.167168467007</v>
       </c>
       <c r="Y32" t="n">
-        <v>412.1313030820032</v>
+        <v>1241.020130670593</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>896.9451585150157</v>
+        <v>223.6776779774906</v>
       </c>
       <c r="C33" t="n">
-        <v>707.5328842479794</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D33" t="n">
-        <v>599.4262024140403</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E33" t="n">
-        <v>425.8629985354548</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F33" t="n">
-        <v>265.4352822526989</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G33" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I33" t="n">
-        <v>34.26540371045432</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J33" t="n">
-        <v>54.25343639154486</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K33" t="n">
-        <v>215.1710339715871</v>
+        <v>111.1747061710124</v>
       </c>
       <c r="L33" t="n">
-        <v>497.8311447175247</v>
+        <v>393.8348169169499</v>
       </c>
       <c r="M33" t="n">
-        <v>872.4368259593775</v>
+        <v>768.4404981588028</v>
       </c>
       <c r="N33" t="n">
-        <v>1275.377094476588</v>
+        <v>1171.380766676014</v>
       </c>
       <c r="O33" t="n">
         <v>1484.24530923774</v>
@@ -6803,28 +6803,28 @@
         <v>1713.270185522716</v>
       </c>
       <c r="R33" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S33" t="n">
-        <v>1625.424923589264</v>
+        <v>1599.413707139713</v>
       </c>
       <c r="T33" t="n">
-        <v>1625.424923589264</v>
+        <v>1599.413707139713</v>
       </c>
       <c r="U33" t="n">
-        <v>1385.851722168028</v>
+        <v>1359.840505718476</v>
       </c>
       <c r="V33" t="n">
-        <v>1385.851722168028</v>
+        <v>1116.76078762211</v>
       </c>
       <c r="W33" t="n">
-        <v>1116.453152898319</v>
+        <v>847.3622183524017</v>
       </c>
       <c r="X33" t="n">
-        <v>896.9451585150157</v>
+        <v>627.854223969098</v>
       </c>
       <c r="Y33" t="n">
-        <v>896.9451585150157</v>
+        <v>402.2135309044257</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1413.518955212104</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="C34" t="n">
-        <v>1413.518955212104</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="D34" t="n">
-        <v>1413.518955212104</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="E34" t="n">
-        <v>1413.518955212104</v>
+        <v>190.9094206753849</v>
       </c>
       <c r="F34" t="n">
-        <v>1413.518955212104</v>
+        <v>190.9094206753849</v>
       </c>
       <c r="G34" t="n">
-        <v>1413.518955212104</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H34" t="n">
-        <v>1413.518955212104</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I34" t="n">
-        <v>1413.518955212104</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J34" t="n">
-        <v>1413.518955212104</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K34" t="n">
-        <v>1421.324805410377</v>
+        <v>42.07125390872753</v>
       </c>
       <c r="L34" t="n">
-        <v>1484.400852112388</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M34" t="n">
-        <v>1559.501589094673</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N34" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O34" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P34" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q34" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R34" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S34" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T34" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U34" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V34" t="n">
-        <v>1592.929986186819</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W34" t="n">
-        <v>1592.929986186819</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="X34" t="n">
-        <v>1592.929986186819</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Y34" t="n">
-        <v>1592.929986186819</v>
+        <v>334.0166340210667</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1184.856412918036</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="C35" t="n">
-        <v>831.1134862703802</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="D35" t="n">
-        <v>831.1134862703802</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="E35" t="n">
-        <v>455.8822619656973</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="F35" t="n">
-        <v>455.8822619656973</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="G35" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="H35" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="I35" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="J35" t="n">
-        <v>79.03615234277368</v>
+        <v>79.03615234277436</v>
       </c>
       <c r="K35" t="n">
-        <v>253.4009645124888</v>
+        <v>253.4009645124896</v>
       </c>
       <c r="L35" t="n">
-        <v>524.6989948305059</v>
+        <v>524.6989948305066</v>
       </c>
       <c r="M35" t="n">
-        <v>855.4462867779238</v>
+        <v>855.4462867779247</v>
       </c>
       <c r="N35" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O35" t="n">
-        <v>1458.701379414585</v>
+        <v>1458.701379414586</v>
       </c>
       <c r="P35" t="n">
         <v>1648.405101797589</v>
@@ -6964,25 +6964,25 @@
         <v>1713.270185522716</v>
       </c>
       <c r="S35" t="n">
-        <v>1655.774434258926</v>
+        <v>1516.542565231273</v>
       </c>
       <c r="T35" t="n">
-        <v>1437.417567291221</v>
+        <v>1298.185698263568</v>
       </c>
       <c r="U35" t="n">
-        <v>1184.856412918036</v>
+        <v>1205.550310211764</v>
       </c>
       <c r="V35" t="n">
-        <v>1184.856412918036</v>
+        <v>1205.550310211764</v>
       </c>
       <c r="W35" t="n">
-        <v>1184.856412918036</v>
+        <v>1205.550310211764</v>
       </c>
       <c r="X35" t="n">
-        <v>1184.856412918036</v>
+        <v>1205.550310211764</v>
       </c>
       <c r="Y35" t="n">
-        <v>1184.856412918036</v>
+        <v>819.4032724153501</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>759.2231476321934</v>
+        <v>223.6776779774906</v>
       </c>
       <c r="C36" t="n">
-        <v>569.8108733651571</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="D36" t="n">
-        <v>409.0307571261889</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="E36" t="n">
-        <v>235.4675532476033</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="F36" t="n">
-        <v>235.4675532476033</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="G36" t="n">
-        <v>235.4675532476033</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="I36" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="J36" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="K36" t="n">
-        <v>111.1747061710124</v>
+        <v>195.1830012904966</v>
       </c>
       <c r="L36" t="n">
-        <v>393.8348169169499</v>
+        <v>477.8431120364341</v>
       </c>
       <c r="M36" t="n">
-        <v>768.4404981588028</v>
+        <v>852.448793278287</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.380766676014</v>
+        <v>1255.389061795498</v>
       </c>
       <c r="O36" t="n">
-        <v>1484.24530923774</v>
+        <v>1568.253604357224</v>
       </c>
       <c r="P36" t="n">
         <v>1713.270185522716</v>
@@ -7040,28 +7040,28 @@
         <v>1713.270185522716</v>
       </c>
       <c r="R36" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S36" t="n">
-        <v>1625.424923589264</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T36" t="n">
-        <v>1411.413989481741</v>
+        <v>1320.163595575251</v>
       </c>
       <c r="U36" t="n">
-        <v>1171.840788060505</v>
+        <v>1181.304652791541</v>
       </c>
       <c r="V36" t="n">
-        <v>1163.399693623801</v>
+        <v>938.2249346951752</v>
       </c>
       <c r="W36" t="n">
-        <v>1163.399693623801</v>
+        <v>668.8263654254665</v>
       </c>
       <c r="X36" t="n">
-        <v>1163.399693623801</v>
+        <v>449.3183710421629</v>
       </c>
       <c r="Y36" t="n">
-        <v>937.7590005591285</v>
+        <v>223.6776779774906</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.77349554699066</v>
+        <v>107.5511362737878</v>
       </c>
       <c r="C37" t="n">
-        <v>40.77349554699066</v>
+        <v>107.5511362737878</v>
       </c>
       <c r="D37" t="n">
-        <v>40.77349554699066</v>
+        <v>107.5511362737878</v>
       </c>
       <c r="E37" t="n">
-        <v>40.77349554699066</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="F37" t="n">
-        <v>40.77349554699066</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="G37" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="H37" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="I37" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="J37" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="K37" t="n">
         <v>42.07125390872753</v>
@@ -7122,25 +7122,25 @@
         <v>334.0166340210667</v>
       </c>
       <c r="S37" t="n">
-        <v>334.0166340210667</v>
+        <v>107.5511362737878</v>
       </c>
       <c r="T37" t="n">
-        <v>334.0166340210667</v>
+        <v>107.5511362737878</v>
       </c>
       <c r="U37" t="n">
-        <v>334.0166340210667</v>
+        <v>107.5511362737878</v>
       </c>
       <c r="V37" t="n">
-        <v>334.0166340210667</v>
+        <v>107.5511362737878</v>
       </c>
       <c r="W37" t="n">
-        <v>40.77349554699066</v>
+        <v>107.5511362737878</v>
       </c>
       <c r="X37" t="n">
-        <v>40.77349554699066</v>
+        <v>107.5511362737878</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.77349554699066</v>
+        <v>107.5511362737878</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>797.0662616043107</v>
+        <v>816.7685973484843</v>
       </c>
       <c r="C38" t="n">
-        <v>797.0662616043107</v>
+        <v>816.7685973484843</v>
       </c>
       <c r="D38" t="n">
-        <v>455.8822619656973</v>
+        <v>816.7685973484843</v>
       </c>
       <c r="E38" t="n">
-        <v>455.8822619656973</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="F38" t="n">
-        <v>455.8822619656973</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G38" t="n">
         <v>34.26540371045431</v>
@@ -7183,7 +7183,7 @@
         <v>524.6989948305065</v>
       </c>
       <c r="M38" t="n">
-        <v>855.4462867779241</v>
+        <v>855.4462867779242</v>
       </c>
       <c r="N38" t="n">
         <v>1184.702979677705</v>
@@ -7201,25 +7201,25 @@
         <v>1713.270185522716</v>
       </c>
       <c r="S38" t="n">
-        <v>1516.542565231272</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T38" t="n">
-        <v>1298.185698263567</v>
+        <v>1580.781534516447</v>
       </c>
       <c r="U38" t="n">
-        <v>1121.187255148909</v>
+        <v>1580.781534516447</v>
       </c>
       <c r="V38" t="n">
-        <v>797.0662616043107</v>
+        <v>1580.781534516447</v>
       </c>
       <c r="W38" t="n">
-        <v>797.0662616043107</v>
+        <v>1580.781534516447</v>
       </c>
       <c r="X38" t="n">
-        <v>797.0662616043107</v>
+        <v>1580.781534516447</v>
       </c>
       <c r="Y38" t="n">
-        <v>797.0662616043107</v>
+        <v>1194.634496720033</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4213552892377</v>
+        <v>223.6776779774906</v>
       </c>
       <c r="C39" t="n">
-        <v>798.0090810222014</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D39" t="n">
-        <v>637.2289647832331</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E39" t="n">
-        <v>463.6657609046475</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F39" t="n">
-        <v>303.2380446218916</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G39" t="n">
-        <v>153.7678596636252</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H39" t="n">
         <v>34.26540371045431</v>
@@ -7256,49 +7256,49 @@
         <v>34.26540371045431</v>
       </c>
       <c r="K39" t="n">
-        <v>195.1830012904965</v>
+        <v>111.1747061710124</v>
       </c>
       <c r="L39" t="n">
-        <v>477.8431120364341</v>
+        <v>393.8348169169499</v>
       </c>
       <c r="M39" t="n">
-        <v>678.0453684563944</v>
+        <v>768.4404981588028</v>
       </c>
       <c r="N39" t="n">
-        <v>1080.985636973605</v>
+        <v>1171.380766676014</v>
       </c>
       <c r="O39" t="n">
-        <v>1393.850179535332</v>
+        <v>1484.24530923774</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.875055820307</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="Q39" t="n">
         <v>1713.270185522716</v>
       </c>
       <c r="R39" t="n">
-        <v>1713.270185522716</v>
+        <v>1625.424923589264</v>
       </c>
       <c r="S39" t="n">
-        <v>1713.270185522716</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="T39" t="n">
-        <v>1499.259251415193</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="U39" t="n">
-        <v>1476.32791894225</v>
+        <v>1206.756066328085</v>
       </c>
       <c r="V39" t="n">
-        <v>1476.32791894225</v>
+        <v>963.676348231719</v>
       </c>
       <c r="W39" t="n">
-        <v>1206.929349672541</v>
+        <v>694.2777789620103</v>
       </c>
       <c r="X39" t="n">
-        <v>987.4213552892377</v>
+        <v>474.7697845787067</v>
       </c>
       <c r="Y39" t="n">
-        <v>987.4213552892377</v>
+        <v>249.1290915140343</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959066</v>
       </c>
       <c r="C40" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959066</v>
       </c>
       <c r="D40" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959066</v>
       </c>
       <c r="E40" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959066</v>
       </c>
       <c r="F40" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959066</v>
       </c>
       <c r="G40" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959066</v>
       </c>
       <c r="H40" t="n">
         <v>34.26540371045431</v>
@@ -7365,19 +7365,19 @@
         <v>334.0166340210667</v>
       </c>
       <c r="U40" t="n">
-        <v>334.0166340210667</v>
+        <v>42.47988072959066</v>
       </c>
       <c r="V40" t="n">
-        <v>334.0166340210667</v>
+        <v>42.47988072959066</v>
       </c>
       <c r="W40" t="n">
-        <v>40.77349554699066</v>
+        <v>42.47988072959066</v>
       </c>
       <c r="X40" t="n">
-        <v>40.77349554699066</v>
+        <v>42.47988072959066</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.77349554699066</v>
+        <v>42.47988072959066</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.5533488353749</v>
+        <v>939.98390179994</v>
       </c>
       <c r="C41" t="n">
-        <v>34.26540371045431</v>
+        <v>777.1937092713442</v>
       </c>
       <c r="D41" t="n">
-        <v>34.26540371045431</v>
+        <v>777.1937092713442</v>
       </c>
       <c r="E41" t="n">
-        <v>34.26540371045431</v>
+        <v>777.1937092713442</v>
       </c>
       <c r="F41" t="n">
-        <v>34.26540371045431</v>
+        <v>369.9217399379973</v>
       </c>
       <c r="G41" t="n">
-        <v>34.26540371045431</v>
+        <v>369.9217399379973</v>
       </c>
       <c r="H41" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="I41" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="J41" t="n">
-        <v>79.03615234277379</v>
+        <v>79.03615234277436</v>
       </c>
       <c r="K41" t="n">
-        <v>253.4009645124891</v>
+        <v>253.40096451249</v>
       </c>
       <c r="L41" t="n">
-        <v>524.6989948305065</v>
+        <v>524.698994830507</v>
       </c>
       <c r="M41" t="n">
-        <v>855.4462867779246</v>
+        <v>855.4462867779247</v>
       </c>
       <c r="N41" t="n">
         <v>1184.702979677705</v>
@@ -7438,25 +7438,25 @@
         <v>1607.629543432273</v>
       </c>
       <c r="S41" t="n">
-        <v>1410.901923140829</v>
+        <v>1410.90192314083</v>
       </c>
       <c r="T41" t="n">
         <v>1192.545056173125</v>
       </c>
       <c r="U41" t="n">
-        <v>939.9839017999395</v>
+        <v>939.98390179994</v>
       </c>
       <c r="V41" t="n">
-        <v>615.8629082553415</v>
+        <v>939.98390179994</v>
       </c>
       <c r="W41" t="n">
-        <v>274.5533488353749</v>
+        <v>939.98390179994</v>
       </c>
       <c r="X41" t="n">
-        <v>274.5533488353749</v>
+        <v>939.98390179994</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.5533488353749</v>
+        <v>939.98390179994</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>345.4888681325886</v>
+        <v>368.6087238280081</v>
       </c>
       <c r="C42" t="n">
-        <v>156.0765938655523</v>
+        <v>368.6087238280081</v>
       </c>
       <c r="D42" t="n">
-        <v>115.9650972944325</v>
+        <v>207.8286075890398</v>
       </c>
       <c r="E42" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="F42" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="G42" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="I42" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="J42" t="n">
-        <v>54.25343639154485</v>
+        <v>54.25343639154486</v>
       </c>
       <c r="K42" t="n">
-        <v>111.1747061710124</v>
+        <v>111.1747061710128</v>
       </c>
       <c r="L42" t="n">
-        <v>393.8348169169499</v>
+        <v>393.8348169169504</v>
       </c>
       <c r="M42" t="n">
-        <v>768.4404981588028</v>
+        <v>768.4404981588033</v>
       </c>
       <c r="N42" t="n">
         <v>1171.380766676014</v>
@@ -7514,28 +7514,28 @@
         <v>1713.270185522716</v>
       </c>
       <c r="R42" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S42" t="n">
-        <v>1446.329267749321</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T42" t="n">
-        <v>1232.318333641798</v>
+        <v>1501.265034893864</v>
       </c>
       <c r="U42" t="n">
-        <v>992.745132220562</v>
+        <v>1261.691833472628</v>
       </c>
       <c r="V42" t="n">
-        <v>749.6654141241961</v>
+        <v>1261.691833472628</v>
       </c>
       <c r="W42" t="n">
-        <v>749.6654141241961</v>
+        <v>992.2932642029193</v>
       </c>
       <c r="X42" t="n">
-        <v>749.6654141241961</v>
+        <v>772.7852698196157</v>
       </c>
       <c r="Y42" t="n">
-        <v>524.0247210595237</v>
+        <v>547.1445767549433</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1713.270185522716</v>
+        <v>180.9145453778389</v>
       </c>
       <c r="C43" t="n">
-        <v>1713.270185522716</v>
+        <v>180.9145453778389</v>
       </c>
       <c r="D43" t="n">
-        <v>1696.956352616822</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="E43" t="n">
-        <v>1553.84913927114</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="F43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="G43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="H43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="I43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="J43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045432</v>
       </c>
       <c r="K43" t="n">
-        <v>1421.324805410376</v>
+        <v>42.07125390872753</v>
       </c>
       <c r="L43" t="n">
-        <v>1484.400852112388</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M43" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N43" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O43" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P43" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q43" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R43" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S43" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T43" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U43" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V43" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W43" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="X43" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Y43" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>812.5905285467846</v>
+        <v>816.7685973484843</v>
       </c>
       <c r="C44" t="n">
-        <v>812.5905285467846</v>
+        <v>816.7685973484843</v>
       </c>
       <c r="D44" t="n">
-        <v>471.4065289081712</v>
+        <v>816.7685973484843</v>
       </c>
       <c r="E44" t="n">
-        <v>471.4065289081712</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="F44" t="n">
-        <v>471.4065289081712</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G44" t="n">
-        <v>49.78967065292824</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H44" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I44" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J44" t="n">
-        <v>79.03615234277379</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K44" t="n">
-        <v>253.4009645124891</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L44" t="n">
-        <v>524.6989948305065</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M44" t="n">
-        <v>855.4462867779247</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N44" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O44" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P44" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q44" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R44" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S44" t="n">
-        <v>1607.629543432273</v>
+        <v>1580.781534516447</v>
       </c>
       <c r="T44" t="n">
-        <v>1389.272676464568</v>
+        <v>1580.781534516447</v>
       </c>
       <c r="U44" t="n">
-        <v>1136.711522091383</v>
+        <v>1580.781534516447</v>
       </c>
       <c r="V44" t="n">
-        <v>812.5905285467846</v>
+        <v>1580.781534516447</v>
       </c>
       <c r="W44" t="n">
-        <v>812.5905285467846</v>
+        <v>1580.781534516447</v>
       </c>
       <c r="X44" t="n">
-        <v>812.5905285467846</v>
+        <v>1580.781534516447</v>
       </c>
       <c r="Y44" t="n">
-        <v>812.5905285467846</v>
+        <v>1194.634496720033</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>773.7969407502658</v>
+        <v>773.7969407502653</v>
       </c>
       <c r="C45" t="n">
-        <v>637.5813647394455</v>
+        <v>584.384666483229</v>
       </c>
       <c r="D45" t="n">
-        <v>476.8012485004772</v>
+        <v>423.6045502442607</v>
       </c>
       <c r="E45" t="n">
-        <v>303.2380446218916</v>
+        <v>250.0413463656752</v>
       </c>
       <c r="F45" t="n">
-        <v>303.2380446218916</v>
+        <v>153.7678596636252</v>
       </c>
       <c r="G45" t="n">
         <v>153.7678596636252</v>
       </c>
       <c r="H45" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I45" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J45" t="n">
-        <v>54.25343639154485</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K45" t="n">
-        <v>215.1710339715871</v>
+        <v>111.1747061710121</v>
       </c>
       <c r="L45" t="n">
-        <v>497.8311447175247</v>
+        <v>393.8348169169496</v>
       </c>
       <c r="M45" t="n">
-        <v>872.4368259593775</v>
+        <v>768.4404981588024</v>
       </c>
       <c r="N45" t="n">
-        <v>1080.985636973605</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O45" t="n">
-        <v>1393.850179535332</v>
+        <v>1484.24530923774</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.875055820307</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q45" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.424923589264</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S45" t="n">
-        <v>1625.424923589264</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="T45" t="n">
-        <v>1411.413989481741</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="U45" t="n">
-        <v>1171.840788060505</v>
+        <v>1171.840788060504</v>
       </c>
       <c r="V45" t="n">
-        <v>1171.840788060505</v>
+        <v>1171.840788060504</v>
       </c>
       <c r="W45" t="n">
-        <v>1171.840788060505</v>
+        <v>1171.840788060504</v>
       </c>
       <c r="X45" t="n">
-        <v>952.3327936772009</v>
+        <v>952.3327936772005</v>
       </c>
       <c r="Y45" t="n">
-        <v>952.3327936772009</v>
+        <v>952.3327936772005</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K46" t="n">
-        <v>42.07125390872753</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L46" t="n">
         <v>105.1473006107386</v>
@@ -7839,19 +7839,19 @@
         <v>334.0166340210667</v>
       </c>
       <c r="U46" t="n">
-        <v>334.0166340210667</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="V46" t="n">
-        <v>327.5085421845304</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="W46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>176.9203908159872</v>
       </c>
       <c r="N3" t="n">
-        <v>160.4047444027676</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O3" t="n">
         <v>177.484287653347</v>
       </c>
       <c r="P3" t="n">
-        <v>166.9656464766077</v>
+        <v>163.6166327065838</v>
       </c>
       <c r="Q3" t="n">
         <v>136.1300824528302</v>
@@ -8534,22 +8534,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.373473584151</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
         <v>172.5532127625713</v>
       </c>
       <c r="M9" t="n">
-        <v>176.9203908159872</v>
+        <v>176.7782950813963</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7537581727915</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>174.1352738833231</v>
+        <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.9656464766077</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8768,10 +8768,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>61.51705889948337</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>8.830445725522424</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8780,7 +8780,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>114.2588509958522</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>122.5080347337893</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9005,7 +9005,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>61.51705889948337</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
         <v>171.373473584151</v>
@@ -9014,7 +9014,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>301.77688131</v>
+        <v>105.4218737312291</v>
       </c>
       <c r="N15" t="n">
         <v>310.6138585746227</v>
@@ -9023,10 +9023,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>121.507010321625</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.82187063221566</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,7 +9242,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>61.51705889948337</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
         <v>171.373473584151</v>
@@ -9251,10 +9251,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>125.6118057323311</v>
+        <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>205.5670628164662</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>44.82187063221568</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,16 +9479,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>61.51705889948335</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>8.830445725522395</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>301.77688131</v>
+        <v>105.4218737312291</v>
       </c>
       <c r="N21" t="n">
         <v>310.6138585746227</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>122.5080347337895</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,7 +9716,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>61.51705889948336</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
         <v>171.373473584151</v>
@@ -9728,16 +9728,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>134.4487829969533</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>101.3170783205232</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>44.82187063221566</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9965,13 +9965,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>205.5670628164668</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>206.3638740786793</v>
+        <v>101.3170783205232</v>
       </c>
       <c r="Q27" t="n">
         <v>44.82187063221566</v>
@@ -10190,7 +10190,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.51705889948337</v>
       </c>
       <c r="K30" t="n">
         <v>171.373473584151</v>
@@ -10202,16 +10202,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>310.6138585746227</v>
+        <v>134.4487829969533</v>
       </c>
       <c r="O30" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>101.3170783205236</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.82187063221566</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.51705889948337</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>86.51660982709622</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10442,7 +10442,7 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O33" t="n">
-        <v>150.175987133165</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
         <v>206.3638740786793</v>
@@ -10667,7 +10667,7 @@
         <v>61.51705889948337</v>
       </c>
       <c r="K36" t="n">
-        <v>86.51660982709623</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10682,7 +10682,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>206.3638740786793</v>
+        <v>121.507010321625</v>
       </c>
       <c r="Q36" t="n">
         <v>44.82187063221566</v>
@@ -10904,13 +10904,13 @@
         <v>61.51705889948337</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>86.51660982709622</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M39" t="n">
-        <v>125.6118057323306</v>
+        <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
         <v>310.6138585746227</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.82187063221566</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11141,7 +11141,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>66.32667782599466</v>
+        <v>66.32667782599511</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>61.51705889948337</v>
       </c>
       <c r="K45" t="n">
-        <v>171.373473584151</v>
+        <v>86.51660982709596</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11387,7 +11387,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>114.2588509958518</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>44.82187063221568</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23263,7 +23263,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>69.30499034989572</v>
       </c>
       <c r="E11" t="n">
         <v>371.4789120616362</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>307.488843300402</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>165.2663916204595</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>149.3083860634788</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>86.96680931411738</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>168.0559694104069</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.22331673875183</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.4371603754213</v>
       </c>
       <c r="S13" t="n">
-        <v>175.1076018764729</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T13" t="n">
         <v>221.0064803333194</v>
@@ -23475,7 +23475,7 @@
         <v>288.6213857585613</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>228.9583206076153</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23503,19 +23503,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>152.339320594375</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.3636794883454</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>216.1732982980278</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23579,16 +23579,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.8866288537584</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.96680931411738</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>237.1774694070239</v>
@@ -23636,7 +23636,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>246.4446332651685</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>168.0559694104069</v>
       </c>
       <c r="H16" t="n">
-        <v>83.45153758438541</v>
+        <v>160.0914904239654</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.4619076189266</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>245.1090151844499</v>
+        <v>236.9766829355049</v>
       </c>
       <c r="W16" t="n">
         <v>290.3107070893353</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>205.3636794883458</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>192.1300050707279</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T17" t="n">
         <v>216.1732982980278</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>64.44762353779639</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.06034713114379</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -23892,7 +23892,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4571809719723</v>
+        <v>93.90430573427223</v>
       </c>
       <c r="D19" t="n">
         <v>145.1826502507107</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.22331673875183</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R19" t="n">
         <v>174.4371603754213</v>
@@ -23952,7 +23952,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>217.7578318516352</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>14.20324332410217</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>332.2997728652675</v>
@@ -24019,25 +24019,25 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7603440885287</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T20" t="n">
         <v>216.1732982980278</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>242.8203898311775</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>177.9386866092615</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>59.5446576909496</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.88269664813836</v>
+        <v>80.88269664813838</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.96680931411737</v>
+        <v>86.96680931411738</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24135,7 +24135,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
-        <v>133.5438089632798</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
         <v>138.9268822184467</v>
@@ -24150,7 +24150,7 @@
         <v>145.4619076189266</v>
       </c>
       <c r="J22" t="n">
-        <v>74.6518575489997</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.22331673875182</v>
+        <v>73.22331673875183</v>
       </c>
       <c r="R22" t="n">
-        <v>174.4371603754213</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>224.2008427698061</v>
+        <v>101.8842851377211</v>
       </c>
       <c r="T22" t="n">
         <v>221.0064803333194</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24214,7 +24214,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>47.75508492483692</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>87.20981524975728</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7603440885287</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.0355428294531</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>88.93945892445183</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>66.70685900227464</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.88269664813838</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.96680931411738</v>
       </c>
       <c r="S24" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24381,13 +24381,13 @@
         <v>168.0559694104069</v>
       </c>
       <c r="H25" t="n">
-        <v>83.45153758438551</v>
+        <v>160.0914904239654</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>145.4619076189266</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.22331673875182</v>
+        <v>73.22331673875183</v>
       </c>
       <c r="R25" t="n">
         <v>174.4371603754213</v>
@@ -24420,13 +24420,13 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213857585613</v>
+        <v>282.1783748403903</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24451,13 +24451,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>332.2997728652675</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S26" t="n">
         <v>194.7603440885288</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>79.86576159724305</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>309.4228719509555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>69.69413886750279</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.88269664813838</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,19 +24572,19 @@
         <v>86.96680931411738</v>
       </c>
       <c r="S27" t="n">
-        <v>177.3046992815431</v>
+        <v>99.7551169161321</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>174.4371603754213</v>
       </c>
       <c r="S28" t="n">
-        <v>148.4536050956192</v>
+        <v>217.7578318516352</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U28" t="n">
         <v>288.6213857585613</v>
@@ -24663,7 +24663,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24682,7 +24682,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>109.7489747566784</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.4006896726905</v>
+        <v>90.05089532453565</v>
       </c>
       <c r="H29" t="n">
         <v>332.2997728652675</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.1732982980278</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.88269664813838</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.96680931411738</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8708247664476</v>
+        <v>192.9753286766292</v>
       </c>
       <c r="U30" t="n">
         <v>237.1774694070239</v>
@@ -24821,10 +24821,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>153.6605922828412</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>132.4838713002757</v>
       </c>
       <c r="G31" t="n">
         <v>168.0559694104069</v>
@@ -24888,10 +24888,10 @@
         <v>174.4371603754213</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T31" t="n">
-        <v>148.4536050956192</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U31" t="n">
         <v>288.6213857585613</v>
@@ -24900,7 +24900,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24928,10 +24928,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>332.2997728652675</v>
@@ -24967,22 +24967,22 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T32" t="n">
         <v>216.1732982980278</v>
       </c>
       <c r="U32" t="n">
-        <v>219.6164586239842</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>274.5407274095547</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>52.14670006097884</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H33" t="n">
         <v>118.3074313936392</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.88269664813838</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.96680931411738</v>
       </c>
       <c r="S33" t="n">
-        <v>177.3046992815431</v>
+        <v>64.58678568237023</v>
       </c>
       <c r="T33" t="n">
         <v>211.8708247664476</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -25083,13 +25083,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.0559694104069</v>
+        <v>12.97839261512564</v>
       </c>
       <c r="H34" t="n">
         <v>160.0914904239654</v>
@@ -25134,7 +25134,7 @@
         <v>288.6213857585613</v>
       </c>
       <c r="V34" t="n">
-        <v>125.9722178419118</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H35" t="n">
         <v>332.2997728652675</v>
@@ -25204,13 +25204,13 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S35" t="n">
-        <v>137.8395503373767</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>158.3265086581673</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25222,7 +25222,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -25250,10 +25250,10 @@
         <v>147.9754831086837</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.88269664813838</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.96680931411738</v>
       </c>
       <c r="S36" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>99.70711605115164</v>
       </c>
       <c r="V36" t="n">
-        <v>232.2922374230656</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>69.12326597452483</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>161.6129584922359</v>
+        <v>168.0559694104069</v>
       </c>
       <c r="H37" t="n">
         <v>160.0914904239654</v>
@@ -25362,7 +25362,7 @@
         <v>174.4371603754213</v>
       </c>
       <c r="S37" t="n">
-        <v>224.2008427698061</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.0064803333194</v>
@@ -25374,7 +25374,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H38" t="n">
         <v>332.2997728652675</v>
@@ -25441,16 +25441,16 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>85.00953380182193</v>
       </c>
       <c r="U38" t="n">
-        <v>74.80708414594091</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
@@ -25459,7 +25459,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>151.5535949964874</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I39" t="n">
         <v>80.88269664813838</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.96680931411738</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U39" t="n">
-        <v>214.4754502588108</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.1739097467971</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -25566,7 +25566,7 @@
         <v>168.0559694104069</v>
       </c>
       <c r="H40" t="n">
-        <v>160.0914904239654</v>
+        <v>151.9591581750204</v>
       </c>
       <c r="I40" t="n">
         <v>145.4619076189266</v>
@@ -25605,13 +25605,13 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -25630,7 +25630,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>112.3204317075074</v>
+        <v>189.043206777869</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
@@ -25639,13 +25639,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>417.4006896726905</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>185.5911946793677</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
@@ -25709,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>119.4619334711699</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -25727,7 +25727,7 @@
         <v>118.3074313936392</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.88269664813838</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.96680931411738</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.985725643884223</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>26.04585290817249</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>129.0319556738763</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.0559694104069</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H44" t="n">
-        <v>316.9307485922183</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I44" t="n">
         <v>185.5911946793677</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7603440885288</v>
+        <v>63.59657959232334</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
@@ -25933,7 +25933,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>52.66473127365381</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>63.51268728489883</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.88269664813838</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.22331673875183</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R46" t="n">
         <v>174.4371603754213</v>
@@ -26079,13 +26079,13 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>238.6660042662789</v>
+        <v>236.976682935505</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581278.5145627229</v>
+        <v>581278.514562723</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581278.5145627231</v>
+        <v>581278.514562723</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>581278.514562723</v>
+        <v>581278.5145627229</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>581278.5145627231</v>
+        <v>581278.514562723</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>581278.5145627229</v>
+        <v>581278.514562723</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>581278.5145627228</v>
+        <v>581278.5145627229</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>581278.514562723</v>
+        <v>581278.5145627229</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>581278.5145627228</v>
+        <v>581278.514562723</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>581278.5145627231</v>
+        <v>581278.514562723</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>581278.5145627229</v>
+        <v>581278.5145627231</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>581278.514562723</v>
+        <v>581278.5145627229</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>529479.9589527132</v>
+      </c>
+      <c r="C2" t="n">
         <v>529479.9589527133</v>
       </c>
-      <c r="C2" t="n">
-        <v>529479.9589527132</v>
-      </c>
       <c r="D2" t="n">
-        <v>529479.9589527131</v>
+        <v>529479.9589527133</v>
       </c>
       <c r="E2" t="n">
         <v>300346.7934343155</v>
@@ -26328,34 +26328,34 @@
         <v>300346.7934343154</v>
       </c>
       <c r="G2" t="n">
-        <v>300346.7934343155</v>
+        <v>300346.7934343154</v>
       </c>
       <c r="H2" t="n">
-        <v>300346.7934343156</v>
+        <v>300346.7934343154</v>
       </c>
       <c r="I2" t="n">
-        <v>300346.7934343152</v>
+        <v>300346.7934343154</v>
       </c>
       <c r="J2" t="n">
         <v>300346.7934343154</v>
       </c>
       <c r="K2" t="n">
+        <v>300346.7934343153</v>
+      </c>
+      <c r="L2" t="n">
+        <v>300346.7934343154</v>
+      </c>
+      <c r="M2" t="n">
         <v>300346.7934343155</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>300346.7934343154</v>
+      </c>
+      <c r="O2" t="n">
         <v>300346.7934343155</v>
       </c>
-      <c r="M2" t="n">
-        <v>300346.7934343154</v>
-      </c>
-      <c r="N2" t="n">
-        <v>300346.7934343153</v>
-      </c>
-      <c r="O2" t="n">
-        <v>300346.7934343154</v>
-      </c>
       <c r="P2" t="n">
-        <v>300346.7934343153</v>
+        <v>300346.7934343155</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1178.583834366815</v>
+        <v>1178.583834366837</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495393.5289189679</v>
+        <v>495393.5289189678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>105862.0278985367</v>
+        <v>105862.0278985366</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>5935.088681661155</v>
       </c>
       <c r="G4" t="n">
-        <v>5935.088681661156</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="H4" t="n">
         <v>5935.088681661155</v>
       </c>
       <c r="I4" t="n">
-        <v>5935.088681661156</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="J4" t="n">
         <v>5935.088681661155</v>
@@ -26450,7 +26450,7 @@
         <v>5935.088681661155</v>
       </c>
       <c r="M4" t="n">
-        <v>5935.088681661155</v>
+        <v>5935.088681661156</v>
       </c>
       <c r="N4" t="n">
         <v>5935.088681661155</v>
@@ -26484,10 +26484,10 @@
         <v>36042.35550341868</v>
       </c>
       <c r="G5" t="n">
+        <v>36042.35550341867</v>
+      </c>
+      <c r="H5" t="n">
         <v>36042.35550341868</v>
-      </c>
-      <c r="H5" t="n">
-        <v>36042.35550341869</v>
       </c>
       <c r="I5" t="n">
         <v>36042.35550341868</v>
@@ -26511,7 +26511,7 @@
         <v>36042.35550341868</v>
       </c>
       <c r="P5" t="n">
-        <v>36042.35550341868</v>
+        <v>36042.35550341867</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106841.721650404</v>
+        <v>106810.4228853035</v>
       </c>
       <c r="C6" t="n">
-        <v>108020.3054847707</v>
+        <v>107989.0067196704</v>
       </c>
       <c r="D6" t="n">
-        <v>108020.3054847706</v>
+        <v>107989.0067196704</v>
       </c>
       <c r="E6" t="n">
-        <v>-237024.1796697322</v>
+        <v>-246602.6936647658</v>
       </c>
       <c r="F6" t="n">
-        <v>258369.3492492355</v>
+        <v>248790.835254202</v>
       </c>
       <c r="G6" t="n">
-        <v>258369.3492492356</v>
+        <v>248790.835254202</v>
       </c>
       <c r="H6" t="n">
-        <v>258369.3492492358</v>
+        <v>248790.835254202</v>
       </c>
       <c r="I6" t="n">
-        <v>258369.3492492354</v>
+        <v>248790.8352542019</v>
       </c>
       <c r="J6" t="n">
-        <v>257449.1814637984</v>
+        <v>247870.6674687648</v>
       </c>
       <c r="K6" t="n">
-        <v>258369.3492492356</v>
+        <v>248790.8352542018</v>
       </c>
       <c r="L6" t="n">
-        <v>258369.3492492357</v>
+        <v>248790.835254202</v>
       </c>
       <c r="M6" t="n">
-        <v>152507.3213506989</v>
+        <v>142928.8073556655</v>
       </c>
       <c r="N6" t="n">
-        <v>258369.3492492355</v>
+        <v>248790.835254202</v>
       </c>
       <c r="O6" t="n">
-        <v>258369.3492492355</v>
+        <v>248790.835254202</v>
       </c>
       <c r="P6" t="n">
-        <v>258369.3492492355</v>
+        <v>248790.835254202</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>458.7453524529083</v>
       </c>
       <c r="G3" t="n">
+        <v>458.7453524529082</v>
+      </c>
+      <c r="H3" t="n">
         <v>458.7453524529083</v>
-      </c>
-      <c r="H3" t="n">
-        <v>458.7453524529084</v>
       </c>
       <c r="I3" t="n">
         <v>458.7453524529083</v>
@@ -26779,7 +26779,7 @@
         <v>458.7453524529083</v>
       </c>
       <c r="P3" t="n">
-        <v>458.7453524529083</v>
+        <v>458.7453524529082</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>428.317546380679</v>
+        <v>428.3175463806789</v>
       </c>
       <c r="F4" t="n">
-        <v>428.317546380679</v>
+        <v>428.3175463806789</v>
       </c>
       <c r="G4" t="n">
-        <v>428.317546380679</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="H4" t="n">
-        <v>428.317546380679</v>
+        <v>428.3175463806789</v>
       </c>
       <c r="I4" t="n">
         <v>428.3175463806789</v>
       </c>
       <c r="J4" t="n">
+        <v>428.3175463806789</v>
+      </c>
+      <c r="K4" t="n">
+        <v>428.3175463806789</v>
+      </c>
+      <c r="L4" t="n">
+        <v>428.3175463806789</v>
+      </c>
+      <c r="M4" t="n">
         <v>428.317546380679</v>
-      </c>
-      <c r="K4" t="n">
-        <v>428.317546380679</v>
-      </c>
-      <c r="L4" t="n">
-        <v>428.317546380679</v>
-      </c>
-      <c r="M4" t="n">
-        <v>428.3175463806789</v>
       </c>
       <c r="N4" t="n">
         <v>428.3175463806789</v>
       </c>
       <c r="O4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.317546380679</v>
       </c>
       <c r="P4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>424.8006769495542</v>
+        <v>424.800676949554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.8006769495542</v>
+        <v>424.800676949554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.8006769495542</v>
+        <v>424.800676949554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F2" t="n">
-        <v>399.8223516122474</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27435,7 +27435,7 @@
         <v>224.246294399988</v>
       </c>
       <c r="U2" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0054306354542</v>
       </c>
       <c r="V2" t="n">
         <v>320.879783609152</v>
@@ -27469,7 +27469,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F3" t="n">
-        <v>158.8234391199283</v>
+        <v>155.3065696888035</v>
       </c>
       <c r="G3" t="n">
         <v>148.9622183950918</v>
@@ -27481,7 +27481,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J3" t="n">
-        <v>69.51804420162362</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27502,16 +27502,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.55002333718133</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R3" t="n">
-        <v>148.2309527983001</v>
+        <v>144.7140833671753</v>
       </c>
       <c r="S3" t="n">
-        <v>192.1160050168152</v>
+        <v>192.5352158530052</v>
       </c>
       <c r="T3" t="n">
-        <v>215.8480604164874</v>
+        <v>212.3311909853626</v>
       </c>
       <c r="U3" t="n">
         <v>237.2423862021824</v>
@@ -27526,7 +27526,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y3" t="n">
-        <v>219.8674167029008</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="4">
@@ -27709,16 +27709,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.9622183950918</v>
+        <v>145.8645598001571</v>
       </c>
       <c r="H6" t="n">
-        <v>124.739558327962</v>
+        <v>124.320347491772</v>
       </c>
       <c r="I6" t="n">
         <v>111.3389500165922</v>
       </c>
       <c r="J6" t="n">
-        <v>69.51804420162362</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27882,7 +27882,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>16.81291084694001</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27891,7 +27891,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>33.78365208844627</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
         <v>73.5786919263081</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>173.652835802731</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>184.0012820932411</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>159.1723150765785</v>
+        <v>156.0746564816438</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
@@ -27949,7 +27949,7 @@
         <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>124.320347491772</v>
       </c>
       <c r="I9" t="n">
         <v>114.855819447717</v>
@@ -27982,7 +27982,7 @@
         <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.1160050168152</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
@@ -28000,7 +28000,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>219.8674167029008</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="10">
@@ -32244,7 +32244,7 @@
         <v>291.028973697336</v>
       </c>
       <c r="M17" t="n">
-        <v>323.8258085181778</v>
+        <v>323.8258085181777</v>
       </c>
       <c r="N17" t="n">
         <v>329.0656486494615</v>
@@ -32262,10 +32262,10 @@
         <v>115.8458803860101</v>
       </c>
       <c r="S17" t="n">
-        <v>42.02476268953025</v>
+        <v>42.02476268953024</v>
       </c>
       <c r="T17" t="n">
-        <v>8.072996101960223</v>
+        <v>8.072996101960221</v>
       </c>
       <c r="U17" t="n">
         <v>0.147536193753699</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9867352864081423</v>
+        <v>0.9867352864081422</v>
       </c>
       <c r="H18" t="n">
-        <v>9.529785529257587</v>
+        <v>9.529785529257586</v>
       </c>
       <c r="I18" t="n">
-        <v>33.97312279957859</v>
+        <v>33.97312279957858</v>
       </c>
       <c r="J18" t="n">
         <v>93.22484563384998</v>
@@ -32320,10 +32320,10 @@
         <v>159.3361098231955</v>
       </c>
       <c r="L18" t="n">
-        <v>214.2470629545399</v>
+        <v>214.2470629545398</v>
       </c>
       <c r="M18" t="n">
-        <v>250.016217086835</v>
+        <v>250.0162170868349</v>
       </c>
       <c r="N18" t="n">
         <v>256.633402406651</v>
@@ -32332,7 +32332,7 @@
         <v>234.7694257972916</v>
       </c>
       <c r="P18" t="n">
-        <v>188.4231618405163</v>
+        <v>188.4231618405162</v>
       </c>
       <c r="Q18" t="n">
         <v>125.9558937527306</v>
@@ -32347,7 +32347,7 @@
         <v>3.977235650039835</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06491679515843045</v>
+        <v>0.06491679515843043</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8272457175380312</v>
+        <v>0.8272457175380311</v>
       </c>
       <c r="H19" t="n">
-        <v>7.354966470474501</v>
+        <v>7.3549664704745</v>
       </c>
       <c r="I19" t="n">
         <v>24.8775348510528</v>
       </c>
       <c r="J19" t="n">
-        <v>58.48627222993881</v>
+        <v>58.4862722299388</v>
       </c>
       <c r="K19" t="n">
-        <v>96.11091154669124</v>
+        <v>96.11091154669123</v>
       </c>
       <c r="L19" t="n">
         <v>122.9888769510633</v>
@@ -32408,16 +32408,16 @@
         <v>126.5911560301608</v>
       </c>
       <c r="O19" t="n">
-        <v>116.9274219661938</v>
+        <v>116.9274219661937</v>
       </c>
       <c r="P19" t="n">
         <v>100.0516093284178</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.27054822038914</v>
+        <v>69.27054822038913</v>
       </c>
       <c r="R19" t="n">
-        <v>37.19597562675547</v>
+        <v>37.19597562675546</v>
       </c>
       <c r="S19" t="n">
         <v>14.41663673200368</v>
@@ -32466,43 +32466,43 @@
         <v>1.844202421921238</v>
       </c>
       <c r="H20" t="n">
-        <v>18.88693805350089</v>
+        <v>18.88693805350088</v>
       </c>
       <c r="I20" t="n">
-        <v>71.09861387111862</v>
+        <v>71.09861387111859</v>
       </c>
       <c r="J20" t="n">
         <v>156.5243753075378</v>
       </c>
       <c r="K20" t="n">
-        <v>234.5894638274639</v>
+        <v>234.5894638274638</v>
       </c>
       <c r="L20" t="n">
-        <v>291.0289736973361</v>
+        <v>291.028973697336</v>
       </c>
       <c r="M20" t="n">
-        <v>323.8258085181779</v>
+        <v>323.8258085181778</v>
       </c>
       <c r="N20" t="n">
-        <v>329.0656486494616</v>
+        <v>329.0656486494615</v>
       </c>
       <c r="O20" t="n">
-        <v>310.7273608164823</v>
+        <v>310.7273608164822</v>
       </c>
       <c r="P20" t="n">
-        <v>265.1986135253017</v>
+        <v>265.1986135253016</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.1531142902473</v>
+        <v>199.1531142902472</v>
       </c>
       <c r="R20" t="n">
         <v>115.8458803860101</v>
       </c>
       <c r="S20" t="n">
-        <v>42.02476268953026</v>
+        <v>42.02476268953025</v>
       </c>
       <c r="T20" t="n">
-        <v>8.072996101960225</v>
+        <v>8.072996101960223</v>
       </c>
       <c r="U20" t="n">
         <v>0.147536193753699</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9867352864081426</v>
+        <v>0.9867352864081423</v>
       </c>
       <c r="H21" t="n">
-        <v>9.529785529257589</v>
+        <v>9.529785529257587</v>
       </c>
       <c r="I21" t="n">
-        <v>33.9731227995786</v>
+        <v>33.97312279957859</v>
       </c>
       <c r="J21" t="n">
-        <v>93.22484563385001</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K21" t="n">
-        <v>159.3361098231956</v>
+        <v>159.3361098231955</v>
       </c>
       <c r="L21" t="n">
         <v>214.2470629545399</v>
@@ -32563,10 +32563,10 @@
         <v>250.016217086835</v>
       </c>
       <c r="N21" t="n">
-        <v>256.6334024066511</v>
+        <v>256.633402406651</v>
       </c>
       <c r="O21" t="n">
-        <v>234.7694257972917</v>
+        <v>234.7694257972916</v>
       </c>
       <c r="P21" t="n">
         <v>188.4231618405163</v>
@@ -32575,16 +32575,16 @@
         <v>125.9558937527306</v>
       </c>
       <c r="R21" t="n">
-        <v>61.26414348418277</v>
+        <v>61.26414348418275</v>
       </c>
       <c r="S21" t="n">
-        <v>18.32817516639685</v>
+        <v>18.32817516639684</v>
       </c>
       <c r="T21" t="n">
-        <v>3.977235650039836</v>
+        <v>3.977235650039835</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06491679515843046</v>
+        <v>0.06491679515843045</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8272457175380314</v>
+        <v>0.8272457175380312</v>
       </c>
       <c r="H22" t="n">
-        <v>7.354966470474503</v>
+        <v>7.354966470474501</v>
       </c>
       <c r="I22" t="n">
-        <v>24.87753485105281</v>
+        <v>24.8775348510528</v>
       </c>
       <c r="J22" t="n">
-        <v>58.48627222993882</v>
+        <v>58.48627222993881</v>
       </c>
       <c r="K22" t="n">
-        <v>96.11091154669127</v>
+        <v>96.11091154669124</v>
       </c>
       <c r="L22" t="n">
         <v>122.9888769510633</v>
@@ -32648,22 +32648,22 @@
         <v>116.9274219661938</v>
       </c>
       <c r="P22" t="n">
-        <v>100.0516093284179</v>
+        <v>100.0516093284178</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.27054822038916</v>
+        <v>69.27054822038914</v>
       </c>
       <c r="R22" t="n">
-        <v>37.19597562675548</v>
+        <v>37.19597562675547</v>
       </c>
       <c r="S22" t="n">
-        <v>14.41663673200369</v>
+        <v>14.41663673200368</v>
       </c>
       <c r="T22" t="n">
-        <v>3.534595338571588</v>
+        <v>3.534595338571587</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04512249368389267</v>
+        <v>0.04512249368389266</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,13 +32706,13 @@
         <v>18.88693805350088</v>
       </c>
       <c r="I23" t="n">
-        <v>71.0986138711186</v>
+        <v>71.09861387111859</v>
       </c>
       <c r="J23" t="n">
         <v>156.5243753075378</v>
       </c>
       <c r="K23" t="n">
-        <v>234.5894638274639</v>
+        <v>234.5894638274638</v>
       </c>
       <c r="L23" t="n">
         <v>291.028973697336</v>
@@ -32721,13 +32721,13 @@
         <v>323.8258085181778</v>
       </c>
       <c r="N23" t="n">
-        <v>329.0656486494616</v>
+        <v>329.0656486494615</v>
       </c>
       <c r="O23" t="n">
         <v>310.7273608164822</v>
       </c>
       <c r="P23" t="n">
-        <v>265.1986135253017</v>
+        <v>265.1986135253016</v>
       </c>
       <c r="Q23" t="n">
         <v>199.1531142902472</v>
@@ -32736,7 +32736,7 @@
         <v>115.8458803860101</v>
       </c>
       <c r="S23" t="n">
-        <v>42.02476268953026</v>
+        <v>42.02476268953025</v>
       </c>
       <c r="T23" t="n">
         <v>8.072996101960223</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9867352864081425</v>
+        <v>0.9867352864081423</v>
       </c>
       <c r="H24" t="n">
         <v>9.529785529257587</v>
@@ -32788,7 +32788,7 @@
         <v>33.97312279957859</v>
       </c>
       <c r="J24" t="n">
-        <v>93.22484563384999</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K24" t="n">
         <v>159.3361098231955</v>
@@ -32803,7 +32803,7 @@
         <v>256.633402406651</v>
       </c>
       <c r="O24" t="n">
-        <v>234.7694257972917</v>
+        <v>234.7694257972916</v>
       </c>
       <c r="P24" t="n">
         <v>188.4231618405163</v>
@@ -32812,13 +32812,13 @@
         <v>125.9558937527306</v>
       </c>
       <c r="R24" t="n">
-        <v>61.26414348418276</v>
+        <v>61.26414348418275</v>
       </c>
       <c r="S24" t="n">
         <v>18.32817516639684</v>
       </c>
       <c r="T24" t="n">
-        <v>3.977235650039836</v>
+        <v>3.977235650039835</v>
       </c>
       <c r="U24" t="n">
         <v>0.06491679515843045</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8272457175380313</v>
+        <v>0.8272457175380312</v>
       </c>
       <c r="H25" t="n">
-        <v>7.354966470474502</v>
+        <v>7.354966470474501</v>
       </c>
       <c r="I25" t="n">
         <v>24.8775348510528</v>
@@ -32870,7 +32870,7 @@
         <v>58.48627222993881</v>
       </c>
       <c r="K25" t="n">
-        <v>96.11091154669126</v>
+        <v>96.11091154669124</v>
       </c>
       <c r="L25" t="n">
         <v>122.9888769510633</v>
@@ -32885,22 +32885,22 @@
         <v>116.9274219661938</v>
       </c>
       <c r="P25" t="n">
-        <v>100.0516093284179</v>
+        <v>100.0516093284178</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.27054822038916</v>
+        <v>69.27054822038914</v>
       </c>
       <c r="R25" t="n">
         <v>37.19597562675547</v>
       </c>
       <c r="S25" t="n">
-        <v>14.41663673200369</v>
+        <v>14.41663673200368</v>
       </c>
       <c r="T25" t="n">
-        <v>3.534595338571588</v>
+        <v>3.534595338571587</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04512249368389267</v>
+        <v>0.04512249368389266</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34377,7 +34377,7 @@
         <v>291.028973697336</v>
       </c>
       <c r="M44" t="n">
-        <v>323.8258085181778</v>
+        <v>323.8258085181777</v>
       </c>
       <c r="N44" t="n">
         <v>329.0656486494615</v>
@@ -34395,10 +34395,10 @@
         <v>115.8458803860101</v>
       </c>
       <c r="S44" t="n">
-        <v>42.02476268953025</v>
+        <v>42.02476268953024</v>
       </c>
       <c r="T44" t="n">
-        <v>8.072996101960223</v>
+        <v>8.072996101960221</v>
       </c>
       <c r="U44" t="n">
         <v>0.147536193753699</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9867352864081423</v>
+        <v>0.9867352864081422</v>
       </c>
       <c r="H45" t="n">
-        <v>9.529785529257587</v>
+        <v>9.529785529257586</v>
       </c>
       <c r="I45" t="n">
-        <v>33.97312279957859</v>
+        <v>33.97312279957858</v>
       </c>
       <c r="J45" t="n">
         <v>93.22484563384998</v>
@@ -34453,10 +34453,10 @@
         <v>159.3361098231955</v>
       </c>
       <c r="L45" t="n">
-        <v>214.2470629545399</v>
+        <v>214.2470629545398</v>
       </c>
       <c r="M45" t="n">
-        <v>250.016217086835</v>
+        <v>250.0162170868349</v>
       </c>
       <c r="N45" t="n">
         <v>256.633402406651</v>
@@ -34465,7 +34465,7 @@
         <v>234.7694257972916</v>
       </c>
       <c r="P45" t="n">
-        <v>188.4231618405163</v>
+        <v>188.4231618405162</v>
       </c>
       <c r="Q45" t="n">
         <v>125.9558937527306</v>
@@ -34480,7 +34480,7 @@
         <v>3.977235650039835</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06491679515843045</v>
+        <v>0.06491679515843043</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8272457175380312</v>
+        <v>0.8272457175380311</v>
       </c>
       <c r="H46" t="n">
-        <v>7.354966470474501</v>
+        <v>7.3549664704745</v>
       </c>
       <c r="I46" t="n">
         <v>24.8775348510528</v>
       </c>
       <c r="J46" t="n">
-        <v>58.48627222993881</v>
+        <v>58.4862722299388</v>
       </c>
       <c r="K46" t="n">
-        <v>96.11091154669124</v>
+        <v>96.11091154669123</v>
       </c>
       <c r="L46" t="n">
         <v>122.9888769510633</v>
@@ -34541,16 +34541,16 @@
         <v>126.5911560301608</v>
       </c>
       <c r="O46" t="n">
-        <v>116.9274219661938</v>
+        <v>116.9274219661937</v>
       </c>
       <c r="P46" t="n">
         <v>100.0516093284178</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.27054822038914</v>
+        <v>69.27054822038913</v>
       </c>
       <c r="R46" t="n">
-        <v>37.19597562675547</v>
+        <v>37.19597562675546</v>
       </c>
       <c r="S46" t="n">
         <v>14.41663673200368</v>
@@ -34789,13 +34789,13 @@
         <v>3.516869431124803</v>
       </c>
       <c r="N3" t="n">
-        <v>0.167855661100898</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="O3" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="P3" t="n">
-        <v>3.516869431124803</v>
+        <v>0.1678556611008989</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.206918035433006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="M9" t="n">
+        <v>3.374773696533903</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.1678556611008989</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>162.5430278586285</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>285.5152633797349</v>
@@ -35500,7 +35500,7 @@
         <v>378.3895770119726</v>
       </c>
       <c r="N12" t="n">
-        <v>210.6553646608366</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O12" t="n">
         <v>316.0247904663902</v>
@@ -35509,7 +35509,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.30821182061455</v>
+        <v>77.68616410157365</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K15" t="n">
         <v>162.5430278586285</v>
@@ -35734,7 +35734,7 @@
         <v>285.5152633797349</v>
       </c>
       <c r="M15" t="n">
-        <v>378.3895770119726</v>
+        <v>182.0345694332017</v>
       </c>
       <c r="N15" t="n">
         <v>407.010372239607</v>
@@ -35743,10 +35743,10 @@
         <v>316.0247904663902</v>
       </c>
       <c r="P15" t="n">
-        <v>146.4813951166583</v>
+        <v>231.3382588737126</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>91.30821182061455</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.22297841648434</v>
+        <v>45.22297841648431</v>
       </c>
       <c r="K17" t="n">
         <v>176.1260728987023</v>
@@ -35904,7 +35904,7 @@
         <v>191.6199215989935</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.52028659103706</v>
+        <v>65.52028659103703</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K18" t="n">
         <v>162.5430278586285</v>
       </c>
       <c r="L18" t="n">
-        <v>285.5152633797349</v>
+        <v>285.5152633797348</v>
       </c>
       <c r="M18" t="n">
-        <v>202.2245014343037</v>
+        <v>378.3895770119725</v>
       </c>
       <c r="N18" t="n">
-        <v>407.010372239607</v>
+        <v>301.9635764814505</v>
       </c>
       <c r="O18" t="n">
         <v>316.0247904663902</v>
@@ -35983,7 +35983,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.30821182061455</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.884697169972938</v>
+        <v>7.884697169972924</v>
       </c>
       <c r="L19" t="n">
-        <v>63.71317848687987</v>
+        <v>63.71317848687985</v>
       </c>
       <c r="M19" t="n">
         <v>75.85933028513598</v>
       </c>
       <c r="N19" t="n">
-        <v>82.15267229778755</v>
+        <v>82.15267229778753</v>
       </c>
       <c r="O19" t="n">
-        <v>53.66144486003742</v>
+        <v>53.66144486003741</v>
       </c>
       <c r="P19" t="n">
-        <v>19.50769741595639</v>
+        <v>19.50769741595637</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.22297841648437</v>
+        <v>45.22297841648434</v>
       </c>
       <c r="K20" t="n">
-        <v>176.1260728987024</v>
+        <v>176.1260728987023</v>
       </c>
       <c r="L20" t="n">
-        <v>274.0384144626435</v>
+        <v>274.0384144626434</v>
       </c>
       <c r="M20" t="n">
-        <v>334.0881736842607</v>
+        <v>334.0881736842605</v>
       </c>
       <c r="N20" t="n">
-        <v>332.5825180805864</v>
+        <v>332.5825180805863</v>
       </c>
       <c r="O20" t="n">
-        <v>276.7660603402835</v>
+        <v>276.7660603402834</v>
       </c>
       <c r="P20" t="n">
-        <v>191.6199215989936</v>
+        <v>191.6199215989935</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.52028659103712</v>
+        <v>65.52028659103706</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L21" t="n">
-        <v>285.515263379735</v>
+        <v>285.5152633797349</v>
       </c>
       <c r="M21" t="n">
-        <v>378.3895770119726</v>
+        <v>182.0345694332017</v>
       </c>
       <c r="N21" t="n">
-        <v>407.0103722396071</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O21" t="n">
-        <v>316.0247904663903</v>
+        <v>316.0247904663902</v>
       </c>
       <c r="P21" t="n">
-        <v>231.3382588737127</v>
+        <v>231.3382588737126</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.68616410157388</v>
+        <v>91.30821182061455</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.884697169972966</v>
+        <v>7.884697169972938</v>
       </c>
       <c r="L22" t="n">
-        <v>63.7131784868799</v>
+        <v>63.71317848687987</v>
       </c>
       <c r="M22" t="n">
-        <v>75.85933028513604</v>
+        <v>75.85933028513598</v>
       </c>
       <c r="N22" t="n">
-        <v>82.15267229778759</v>
+        <v>82.15267229778755</v>
       </c>
       <c r="O22" t="n">
-        <v>53.66144486003745</v>
+        <v>53.66144486003742</v>
       </c>
       <c r="P22" t="n">
-        <v>19.50769741595641</v>
+        <v>19.50769741595639</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.22297841648437</v>
+        <v>45.22297841648434</v>
       </c>
       <c r="K23" t="n">
         <v>176.1260728987023</v>
       </c>
       <c r="L23" t="n">
-        <v>274.0384144626435</v>
+        <v>274.0384144626434</v>
       </c>
       <c r="M23" t="n">
-        <v>334.0881736842606</v>
+        <v>334.0881736842605</v>
       </c>
       <c r="N23" t="n">
-        <v>332.5825180805864</v>
+        <v>332.5825180805863</v>
       </c>
       <c r="O23" t="n">
         <v>276.7660603402834</v>
       </c>
       <c r="P23" t="n">
-        <v>191.6199215989936</v>
+        <v>191.6199215989935</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.52028659103709</v>
+        <v>65.52028659103706</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K24" t="n">
         <v>162.5430278586285</v>
       </c>
       <c r="L24" t="n">
-        <v>285.515263379735</v>
+        <v>285.5152633797349</v>
       </c>
       <c r="M24" t="n">
         <v>378.3895770119726</v>
       </c>
       <c r="N24" t="n">
-        <v>230.8452966619377</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O24" t="n">
         <v>316.0247904663902</v>
       </c>
       <c r="P24" t="n">
-        <v>231.3382588737126</v>
+        <v>126.2914631155565</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.30821182061456</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.884697169972952</v>
+        <v>7.884697169972938</v>
       </c>
       <c r="L25" t="n">
-        <v>63.71317848687988</v>
+        <v>63.71317848687987</v>
       </c>
       <c r="M25" t="n">
-        <v>75.85933028513601</v>
+        <v>75.85933028513598</v>
       </c>
       <c r="N25" t="n">
-        <v>82.15267229778756</v>
+        <v>82.15267229778755</v>
       </c>
       <c r="O25" t="n">
-        <v>53.66144486003743</v>
+        <v>53.66144486003742</v>
       </c>
       <c r="P25" t="n">
-        <v>19.5076974159564</v>
+        <v>19.50769741595639</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>378.3895770119726</v>
       </c>
       <c r="N27" t="n">
-        <v>301.9635764814512</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O27" t="n">
         <v>316.0247904663902</v>
       </c>
       <c r="P27" t="n">
-        <v>231.3382588737126</v>
+        <v>126.2914631155565</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>162.5430278586285</v>
@@ -36922,16 +36922,16 @@
         <v>378.3895770119726</v>
       </c>
       <c r="N30" t="n">
-        <v>407.010372239607</v>
+        <v>230.8452966619377</v>
       </c>
       <c r="O30" t="n">
         <v>316.0247904663902</v>
       </c>
       <c r="P30" t="n">
-        <v>126.291463115557</v>
+        <v>231.3382588737126</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>91.30821182061455</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>162.5430278586285</v>
+        <v>77.68616410157379</v>
       </c>
       <c r="L33" t="n">
         <v>285.5152633797349</v>
@@ -37162,7 +37162,7 @@
         <v>407.010372239607</v>
       </c>
       <c r="O33" t="n">
-        <v>210.9779947082345</v>
+        <v>316.0247904663902</v>
       </c>
       <c r="P33" t="n">
         <v>231.3382588737126</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>77.68616410157379</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L36" t="n">
         <v>285.5152633797349</v>
@@ -37402,7 +37402,7 @@
         <v>316.0247904663902</v>
       </c>
       <c r="P36" t="n">
-        <v>231.3382588737126</v>
+        <v>146.4813951166583</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>162.5430278586285</v>
+        <v>77.68616410157379</v>
       </c>
       <c r="L39" t="n">
         <v>285.5152633797349</v>
       </c>
       <c r="M39" t="n">
-        <v>202.2245014343033</v>
+        <v>378.3895770119726</v>
       </c>
       <c r="N39" t="n">
         <v>407.010372239607</v>
@@ -37642,7 +37642,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.30821182061455</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>20.18993200110155</v>
       </c>
       <c r="K42" t="n">
-        <v>57.49623210047223</v>
+        <v>57.49623210047268</v>
       </c>
       <c r="L42" t="n">
         <v>285.5152633797349</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.22297841648434</v>
+        <v>45.22297841648431</v>
       </c>
       <c r="K44" t="n">
         <v>176.1260728987023</v>
@@ -38037,7 +38037,7 @@
         <v>191.6199215989935</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.52028659103706</v>
+        <v>65.52028659103703</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>162.5430278586285</v>
+        <v>77.68616410157351</v>
       </c>
       <c r="L45" t="n">
-        <v>285.5152633797349</v>
+        <v>285.5152633797348</v>
       </c>
       <c r="M45" t="n">
-        <v>378.3895770119726</v>
+        <v>378.3895770119725</v>
       </c>
       <c r="N45" t="n">
-        <v>210.6553646608362</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O45" t="n">
         <v>316.0247904663902</v>
@@ -38116,7 +38116,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.30821182061455</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.884697169972938</v>
+        <v>7.884697169972924</v>
       </c>
       <c r="L46" t="n">
-        <v>63.71317848687987</v>
+        <v>63.71317848687985</v>
       </c>
       <c r="M46" t="n">
         <v>75.85933028513598</v>
       </c>
       <c r="N46" t="n">
-        <v>82.15267229778755</v>
+        <v>82.15267229778753</v>
       </c>
       <c r="O46" t="n">
-        <v>53.66144486003742</v>
+        <v>53.66144486003741</v>
       </c>
       <c r="P46" t="n">
-        <v>19.50769741595639</v>
+        <v>19.50769741595637</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
